--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98976BF8-E906-4BCE-A6B0-8FEABC966562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A796D1-3AB2-4C7D-B75D-F86F0FE96953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Trim IV</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -351,20 +354,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -610,9 +613,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AI41"/>
+  <dimension ref="B1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -691,7 +694,7 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="21">
@@ -718,61 +721,61 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <v>2024</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1839,11 +1842,11 @@
       <c r="S24" s="7">
         <v>2.9440850799999998</v>
       </c>
-      <c r="AG24" s="16" t="s">
+      <c r="AG24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
@@ -1900,11 +1903,11 @@
       <c r="S25" s="10">
         <v>1.42194562</v>
       </c>
-      <c r="AG25" s="16" t="s">
+      <c r="AG25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
@@ -2634,20 +2637,21 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S40" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S41" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="S42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A796D1-3AB2-4C7D-B75D-F86F0FE96953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C8784-DC2B-4A20-BFB2-43C033CA0523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -238,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,12 +310,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -337,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -357,20 +391,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,7 +686,7 @@
     <col min="36" max="16384" width="11.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -657,7 +697,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -675,7 +715,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
@@ -693,94 +733,98 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>2020</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <v>2021</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
         <v>2022</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>2023</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="17">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="20">
         <v>2024</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="16" t="s">
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="22"/>
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="T5" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
@@ -831,68 +875,74 @@
       <c r="R6" s="6">
         <v>3.5058133300000001</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>3.0003754100000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="7">
+        <v>3.3599171399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="18">
         <v>2.1679783399999999</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <v>3.7235528235030002</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <v>2.7481679699999999</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="18">
         <v>2.8800737700000001</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="18">
         <v>2.5548000000000002</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="18">
         <v>2.4466999999999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="18">
         <v>2.8795000000000002</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="18">
         <v>2.0435054799999999</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="18">
         <v>1.9105000000000001</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="18">
         <v>2.50983702</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="18">
         <v>2.5925436199999998</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="18">
         <v>2.7022449599999998</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="18">
         <v>1.7122155299999999</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="18">
         <v>2.3074277599999999</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="18">
         <v>2.4388878200000002</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="18">
         <v>2.24539394</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="18">
         <v>2.12566465</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="36" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
+      <c r="T7" s="9">
+        <v>2.7377111599999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6">
@@ -943,68 +993,74 @@
       <c r="R8" s="6">
         <v>2.26333947</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>2.2207754199999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="7">
+        <v>2.4133540199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="18">
         <v>2.7825349500000001</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="18">
         <v>4.727600453</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="18">
         <v>3.8260798</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="18">
         <v>3.3896922300000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="18">
         <v>2.9264000000000001</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="18">
         <v>2.8953000000000002</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="18">
         <v>3.0569999999999999</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="18">
         <v>2.9558035199999999</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="18">
         <v>3.0680999999999998</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="18">
         <v>2.95330073</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="18">
         <v>2.2977208999999998</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="18">
         <v>1.97640992</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="18">
         <v>1.7623953999999999</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="18">
         <v>1.7590476799999999</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="18">
         <v>1.81924446</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="18">
         <v>1.7151124</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="18">
         <v>1.56255849</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" ht="36" x14ac:dyDescent="0.35">
-      <c r="B10" s="13" t="s">
+      <c r="T9" s="9">
+        <v>1.9977889</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="36" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="6">
@@ -1055,68 +1111,74 @@
       <c r="R10" s="6">
         <v>4.3396756500000002</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>4.1670313099999996</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="7">
+        <v>3.7141300300000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="18">
         <v>3.1287217100000002</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="18">
         <v>5.6749883899600002</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="18">
         <v>4.1445264799999997</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="18">
         <v>3.8091646199999998</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="18">
         <v>3.2056</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="18">
         <v>3.1979000000000002</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="18">
         <v>2.9165000000000001</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="18">
         <v>3.12393499</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="18">
         <v>2.7711999999999999</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="18">
         <v>2.56226011</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="18">
         <v>2.6098454000000002</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="18">
         <v>2.3576337000000001</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="18">
         <v>2.1347757700000001</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="18">
         <v>2.2065504499999999</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="18">
         <v>2.5596532600000002</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="18">
         <v>2.3033615099999998</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="18">
         <v>2.10576973</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+      <c r="T11" s="9">
+        <v>2.1113554699999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="6">
@@ -1167,68 +1229,74 @@
       <c r="R12" s="6">
         <v>1.73475884</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>1.6975867600000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="7">
+        <v>1.5747210899999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="18">
         <v>3.4911393300000002</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="18">
         <v>3.0033722905200002</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="18">
         <v>4.6977971600000004</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="18">
         <v>3.7350676799999998</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="18">
         <v>3.9754999999999998</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="18">
         <v>3.6124000000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="18">
         <v>3.0286</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="18">
         <v>2.8667256700000001</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="18">
         <v>2.5998000000000001</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="18">
         <v>2.4555326800000001</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="18">
         <v>2.4653640399999999</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="18">
         <v>1.9890553399999999</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="18">
         <v>2.7844147700000001</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="18">
         <v>2.4785179099999999</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="18">
         <v>2.81497544</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="18">
         <v>1.92982532</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="18">
         <v>2.2383546399999998</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+      <c r="T13" s="9">
+        <v>2.5346683200000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6">
@@ -1279,68 +1347,74 @@
       <c r="R14" s="6">
         <v>3.90903658</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>3.9708051100000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="7">
+        <v>4.0401582200000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="18">
         <v>4.0551161799999997</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="18">
         <v>4.5290169577550001</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="18">
         <v>4.8087303199999996</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="18">
         <v>4.8768457500000002</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="18">
         <v>4.1498999999999997</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="18">
         <v>4.5946999999999996</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="18">
         <v>4.2107999999999999</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="18">
         <v>3.4306759699999998</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="18">
         <v>3.5752000000000002</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="18">
         <v>3.2651400499999998</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="18">
         <v>3.25674844</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="18">
         <v>3.0871965700000001</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="18">
         <v>2.9873726999999999</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="18">
         <v>2.8720078299999998</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="18">
         <v>3.0968583000000001</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="18">
         <v>2.8204127899999998</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="18">
         <v>3.0459431000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
+      <c r="T15" s="9">
+        <v>2.81245681</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="6">
@@ -1391,68 +1465,74 @@
       <c r="R16" s="6">
         <v>3.0617636400000001</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>3.1375657399999999</v>
+      </c>
+      <c r="T16" s="7">
+        <v>2.9185895300000002</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="18">
         <v>1.5839889300000001</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="18">
         <v>3.8087971061510002</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="18">
         <v>3.2862965900000001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="18">
         <v>2.4047662999999999</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="18">
         <v>1.6917</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="18">
         <v>1.5095000000000001</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="18">
         <v>1.5939000000000001</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="18">
         <v>1.41565041</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="18">
         <v>1.6037999999999999</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="18">
         <v>1.4893519</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="18">
         <v>1.7187504</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="18">
         <v>0.80639112000000002</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="18">
         <v>1.7971872799999999</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="18">
         <v>0.94909533000000001</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="18">
         <v>1.1498171100000001</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="18">
         <v>0.76678526999999996</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="18">
         <v>1.16993693</v>
       </c>
+      <c r="T17" s="9">
+        <v>1.0426476600000001</v>
+      </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="6">
@@ -1503,68 +1583,74 @@
       <c r="R18" s="6">
         <v>1.82158099</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>2.1629558000000002</v>
+      </c>
+      <c r="T18" s="7">
+        <v>2.4432579200000002</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="18">
         <v>2.9374560000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="18">
         <v>4.1598062785690004</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="18">
         <v>5.0007939300000004</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="18">
         <v>4.0561315899999997</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="18">
         <v>3.7193999999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="18">
         <v>3.3462999999999998</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="18">
         <v>3.3864000000000001</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="18">
         <v>3.0996845999999998</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="18">
         <v>2.3620000000000001</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="18">
         <v>2.3443243100000002</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="18">
         <v>2.8146510400000002</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="18">
         <v>2.36227638</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="18">
         <v>2.1535748199999998</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="18">
         <v>2.4555377200000001</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="18">
         <v>2.96040795</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="18">
         <v>2.2022065500000001</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="18">
         <v>1.42080725</v>
       </c>
+      <c r="T19" s="9">
+        <v>2.2026988300000001</v>
+      </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="6">
@@ -1615,68 +1701,74 @@
       <c r="R20" s="6">
         <v>3.52911054</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <v>3.6474478000000001</v>
+      </c>
+      <c r="T20" s="7">
+        <v>3.2837190600000001</v>
       </c>
     </row>
     <row r="21" spans="2:35" ht="36" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="18">
         <v>2.34419829</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="18">
         <v>3.6889590710990001</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="18">
         <v>2.5568296699999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="18">
         <v>2.2915890600000002</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="18">
         <v>2.5427</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="18">
         <v>1.9844999999999999</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="18">
         <v>2.1976</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="18">
         <v>2.54179617</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="18">
         <v>1.6212</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="18">
         <v>1.72564356</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="18">
         <v>1.8510605</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="18">
         <v>1.6685074600000001</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="18">
         <v>1.6612297199999999</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="18">
         <v>1.9952102300000001</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="18">
         <v>1.9652243899999999</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="18">
         <v>2.0918819599999998</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="18">
         <v>1.71727023</v>
       </c>
+      <c r="T21" s="9">
+        <v>1.72129256</v>
+      </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="6">
@@ -1727,68 +1819,74 @@
       <c r="R22" s="6">
         <v>1.8469265699999999</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <v>1.5702308</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1.57683832</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="18">
         <v>3.7112764399999998</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="18">
         <v>5.8885601693850003</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="18">
         <v>5.2159162300000004</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="18">
         <v>4.0388354399999997</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="18">
         <v>2.6522999999999999</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="18">
         <v>2.8048000000000002</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="18">
         <v>3.3843000000000001</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="18">
         <v>2.6101628799999999</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="18">
         <v>2.9603000000000002</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="18">
         <v>2.46998995</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="18">
         <v>2.7579627499999999</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="18">
         <v>2.38037886</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="18">
         <v>1.9010526400000001</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="18">
         <v>2.1495151699999999</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="18">
         <v>2.3065688400000002</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="18">
         <v>2.0540566999999998</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="18">
         <v>1.97023477</v>
       </c>
+      <c r="T23" s="9">
+        <v>2.1533645899999998</v>
+      </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6">
@@ -1839,78 +1937,84 @@
       <c r="R24" s="6">
         <v>2.686159</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>2.9440850799999998</v>
       </c>
-      <c r="AG24" s="18" t="s">
+      <c r="T24" s="7">
+        <v>2.5978983499999999</v>
+      </c>
+      <c r="AG24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="18">
         <v>1.7074406200000001</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="18">
         <v>3.6823497055669998</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="18">
         <v>3.0591167600000002</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="18">
         <v>1.69948196</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="18">
         <v>1.5342</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="18">
         <v>1.6093</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="18">
         <v>1.7496</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="18">
         <v>1.51448805</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="18">
         <v>1.5727</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="18">
         <v>1.4444677399999999</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="18">
         <v>1.4069400400000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="18">
         <v>1.28337521</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="18">
         <v>1.3527094900000001</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="18">
         <v>1.22087151</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="18">
         <v>1.93502967</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="18">
         <v>1.5406963</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="18">
         <v>1.42194562</v>
       </c>
-      <c r="AG25" s="18" t="s">
+      <c r="T25" s="9">
+        <v>1.1995928199999999</v>
+      </c>
+      <c r="AG25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="6">
@@ -1961,68 +2065,74 @@
       <c r="R26" s="6">
         <v>2.6080242999999999</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <v>1.7335615200000001</v>
+      </c>
+      <c r="T26" s="7">
+        <v>2.3299062099999999</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="18">
         <v>3.49575513</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="18">
         <v>6.048082627875</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="18">
         <v>8.2183487599999996</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="18">
         <v>6.9100863700000001</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="18">
         <v>4.9446000000000003</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="18">
         <v>5.7641</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="18">
         <v>5.4067999999999996</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="18">
         <v>5.7490794699999999</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="18">
         <v>3.6242000000000001</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="18">
         <v>4.2847028600000003</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="18">
         <v>3.8193268800000002</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="18">
         <v>3.6262164700000001</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="18">
         <v>2.4838113100000001</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="18">
         <v>3.2731736900000001</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="18">
         <v>2.9151031500000002</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="18">
         <v>2.90736704</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="18">
         <v>2.6459130800000001</v>
       </c>
+      <c r="T27" s="9">
+        <v>2.74864905</v>
+      </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="6">
@@ -2073,68 +2183,74 @@
       <c r="R28" s="6">
         <v>2.6115367900000002</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <v>2.1841070899999999</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2.6329119599999999</v>
       </c>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="18">
         <v>2.0778713299999998</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="18">
         <v>3.5439068643409999</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="18">
         <v>3.9829591600000001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="18">
         <v>3.2654603999999998</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="18">
         <v>3.0867</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="18">
         <v>2.9163000000000001</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="18">
         <v>4.1970000000000001</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="18">
         <v>3.3240790900000001</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="18">
         <v>2.9449999999999998</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="18">
         <v>3.3013534600000001</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="18">
         <v>3.3777061900000001</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="18">
         <v>2.7125106099999998</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="18">
         <v>2.0048189700000001</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="18">
         <v>2.8122661099999999</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="18">
         <v>3.0663989100000002</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="18">
         <v>3.11087274</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="18">
         <v>2.3051548999999998</v>
       </c>
+      <c r="T29" s="9">
+        <v>2.64475039</v>
+      </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="6">
@@ -2185,68 +2301,74 @@
       <c r="R30" s="6">
         <v>2.2773165999999998</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="6">
         <v>1.85963645</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2.4113883999999999</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="18">
         <v>4.3705438000000001</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="18">
         <v>5.372948325976</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="18">
         <v>6.6877965100000001</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="18">
         <v>4.9442936800000004</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="18">
         <v>4.4452999999999996</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="18">
         <v>2.9325000000000001</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="18">
         <v>4.3503999999999996</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="18">
         <v>3.60542512</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="18">
         <v>2.8570000000000002</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="18">
         <v>3.0669195299999998</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="18">
         <v>3.8153369100000001</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="18">
         <v>2.5478531000000002</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="18">
         <v>2.8623255900000002</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="18">
         <v>2.5887040799999999</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="18">
         <v>2.93751345</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="18">
         <v>2.8216404399999999</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="18">
         <v>2.6154821099999999</v>
       </c>
+      <c r="T31" s="9">
+        <v>3.6200527199999999</v>
+      </c>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="6">
@@ -2297,68 +2419,74 @@
       <c r="R32" s="6">
         <v>3.8484610199999998</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>3.4193521800000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T32" s="7">
+        <v>4.0180364800000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="18">
         <v>3.1892369399999998</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="18">
         <v>4.4766470929609996</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="18">
         <v>3.7868061700000002</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="18">
         <v>3.29395449</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="18">
         <v>3.8391000000000002</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="18">
         <v>2.9788000000000001</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="18">
         <v>3.6738</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="18">
         <v>3.5517481200000001</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="18">
         <v>3.7774000000000001</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="18">
         <v>3.4025774700000002</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="18">
         <v>3.66340975</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="18">
         <v>3.1207157900000002</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="18">
         <v>2.76848363</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="18">
         <v>3.1517385600000001</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="18">
         <v>3.31719673</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="18">
         <v>3.25942614</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="18">
         <v>3.0852135999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B34" s="13" t="s">
+      <c r="T33" s="9">
+        <v>3.4300383700000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="6">
@@ -2409,68 +2537,74 @@
       <c r="R34" s="6">
         <v>3.0042289900000001</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <v>3.1498021399999998</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T34" s="7">
+        <v>2.4487593599999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="18">
         <v>2.6843662699999999</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="18">
         <v>5.6061506395559997</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="18">
         <v>2.75095745</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="18">
         <v>3.3643901899999999</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="18">
         <v>2.5878000000000001</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="18">
         <v>4.2138</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="18">
         <v>3.4125999999999999</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="18">
         <v>3.3017253599999998</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="18">
         <v>2.5969000000000002</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="18">
         <v>2.9266840200000002</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="18">
         <v>3.0652180800000002</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="18">
         <v>2.35307362</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="18">
         <v>2.4165561900000001</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="18">
         <v>2.1384338700000001</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="18">
         <v>1.9840478500000001</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="18">
         <v>1.8953752399999999</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="18">
         <v>1.65543156</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B36" s="13" t="s">
+      <c r="T35" s="9">
+        <v>2.0118811999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="6">
@@ -2521,140 +2655,147 @@
       <c r="R36" s="6">
         <v>1.77690255</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="6">
         <v>1.63492864</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T36" s="7">
+        <v>1.7534417600000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="18">
         <v>3.3246891199999999</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="18">
         <v>4.5902187027619998</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="18">
         <v>3.8974136599999998</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="18">
         <v>4.1611725100000001</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="18">
         <v>3.8961000000000001</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="18">
         <v>3.5958999999999999</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="18">
         <v>3.7721</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="18">
         <v>2.7536017500000001</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="18">
         <v>2.7875999999999999</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="18">
         <v>3.2980424699999999</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="18">
         <v>2.74256441</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="18">
         <v>2.3599748699999998</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="18">
         <v>3.3692865599999999</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="18">
         <v>2.93788917</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="18">
         <v>2.3583399300000001</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="18">
         <v>2.8225105899999998</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="18">
         <v>2.7216196799999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B38" s="14" t="s">
+      <c r="T37" s="9">
+        <v>2.87226252</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>2.9</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>5.5</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>3.8</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>3.9</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>4</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <v>4.2</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="10">
         <v>3.5</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>3</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>3.3</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="10">
         <v>3.3</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="10">
         <v>2.8</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="10">
         <v>2.4</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="10">
         <v>2.6520329203049999</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="10">
         <v>2.8774210909739999</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="10">
         <v>2.613759785893</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S41" s="15"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="S42" s="15"/>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="S42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="AG24:AI24"/>
     <mergeCell ref="AG25:AI25"/>
     <mergeCell ref="B4:B5"/>
@@ -2662,6 +2803,7 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C8784-DC2B-4A20-BFB2-43C033CA0523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82653437-0B15-42E5-9EC7-C93D1BD5D3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Dirección General de Planeación</t>
   </si>
   <si>
-    <t>Sector laboral, Tesa de desempleo</t>
-  </si>
-  <si>
     <t>(Porcentaje)</t>
   </si>
   <si>
@@ -168,6 +165,12 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Tren I</t>
+  </si>
+  <si>
+    <t>Sector laboral, Tasa de desempleo</t>
   </si>
 </sst>
 </file>
@@ -391,26 +394,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,7 +702,7 @@
     </row>
     <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
@@ -717,7 +720,7 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -734,93 +737,93 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="20">
         <v>2020</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
         <v>2021</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20">
         <v>2022</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>2023</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="20">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <v>2024</v>
       </c>
-      <c r="T4" s="21"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="K5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="O5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="S5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
@@ -886,55 +889,55 @@
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>2.1679783399999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>3.7235528235030002</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>2.7481679699999999</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>2.8800737700000001</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>2.5548000000000002</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>2.4466999999999999</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>2.8795000000000002</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>2.0435054799999999</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <v>1.9105000000000001</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <v>2.50983702</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>2.5925436199999998</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <v>2.7022449599999998</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="16">
         <v>1.7122155299999999</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <v>2.3074277599999999</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="16">
         <v>2.4388878200000002</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="16">
         <v>2.24539394</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="16">
         <v>2.12566465</v>
       </c>
       <c r="T7" s="9">
@@ -1004,55 +1007,55 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>2.7825349500000001</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>4.727600453</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>3.8260798</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>3.3896922300000001</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>2.9264000000000001</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>2.8953000000000002</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>3.0569999999999999</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>2.9558035199999999</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="16">
         <v>3.0680999999999998</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="16">
         <v>2.95330073</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <v>2.2977208999999998</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="16">
         <v>1.97640992</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>1.7623953999999999</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="16">
         <v>1.7590476799999999</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="16">
         <v>1.81924446</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="16">
         <v>1.7151124</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="16">
         <v>1.56255849</v>
       </c>
       <c r="T9" s="9">
@@ -1122,55 +1125,55 @@
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>3.1287217100000002</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>5.6749883899600002</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>4.1445264799999997</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>3.8091646199999998</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>3.2056</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>3.1979000000000002</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>2.9165000000000001</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <v>3.12393499</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="16">
         <v>2.7711999999999999</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
         <v>2.56226011</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <v>2.6098454000000002</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <v>2.3576337000000001</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <v>2.1347757700000001</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="16">
         <v>2.2065504499999999</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <v>2.5596532600000002</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="16">
         <v>2.3033615099999998</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="16">
         <v>2.10576973</v>
       </c>
       <c r="T11" s="9">
@@ -1240,55 +1243,55 @@
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>3.4911393300000002</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>3.0033722905200002</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>4.6977971600000004</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>3.7350676799999998</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>3.9754999999999998</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>3.6124000000000001</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>3.0286</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>2.8667256700000001</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <v>2.5998000000000001</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <v>2.4555326800000001</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="16">
         <v>2.4653640399999999</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="16">
         <v>1.9890553399999999</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="16">
         <v>2.7844147700000001</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="16">
         <v>2.4785179099999999</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="16">
         <v>2.81497544</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="16">
         <v>1.92982532</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="16">
         <v>2.2383546399999998</v>
       </c>
       <c r="T13" s="9">
@@ -1358,55 +1361,55 @@
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>4.0551161799999997</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>4.5290169577550001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>4.8087303199999996</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>4.8768457500000002</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>4.1498999999999997</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>4.5946999999999996</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>4.2107999999999999</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>3.4306759699999998</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>3.5752000000000002</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
         <v>3.2651400499999998</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="16">
         <v>3.25674844</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="16">
         <v>3.0871965700000001</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="16">
         <v>2.9873726999999999</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="16">
         <v>2.8720078299999998</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="16">
         <v>3.0968583000000001</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="16">
         <v>2.8204127899999998</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="16">
         <v>3.0459431000000001</v>
       </c>
       <c r="T15" s="9">
@@ -1476,55 +1479,55 @@
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>1.5839889300000001</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>3.8087971061510002</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>3.2862965900000001</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>2.4047662999999999</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>1.6917</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>1.5095000000000001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>1.5939000000000001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <v>1.41565041</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="16">
         <v>1.6037999999999999</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="16">
         <v>1.4893519</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <v>1.7187504</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="16">
         <v>0.80639112000000002</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="16">
         <v>1.7971872799999999</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="16">
         <v>0.94909533000000001</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="16">
         <v>1.1498171100000001</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="16">
         <v>0.76678526999999996</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="16">
         <v>1.16993693</v>
       </c>
       <c r="T17" s="9">
@@ -1594,55 +1597,55 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>2.9374560000000001</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>4.1598062785690004</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>5.0007939300000004</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>4.0561315899999997</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>3.7193999999999998</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>3.3462999999999998</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <v>3.3864000000000001</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <v>3.0996845999999998</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="16">
         <v>2.3620000000000001</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="16">
         <v>2.3443243100000002</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="16">
         <v>2.8146510400000002</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="16">
         <v>2.36227638</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="16">
         <v>2.1535748199999998</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="16">
         <v>2.4555377200000001</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="16">
         <v>2.96040795</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="16">
         <v>2.2022065500000001</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="16">
         <v>1.42080725</v>
       </c>
       <c r="T19" s="9">
@@ -1712,55 +1715,55 @@
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>2.34419829</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>3.6889590710990001</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>2.5568296699999999</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>2.2915890600000002</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>2.5427</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>1.9844999999999999</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="16">
         <v>2.1976</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>2.54179617</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="16">
         <v>1.6212</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="16">
         <v>1.72564356</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="16">
         <v>1.8510605</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="16">
         <v>1.6685074600000001</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="16">
         <v>1.6612297199999999</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="16">
         <v>1.9952102300000001</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="16">
         <v>1.9652243899999999</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="16">
         <v>2.0918819599999998</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="16">
         <v>1.71727023</v>
       </c>
       <c r="T21" s="9">
@@ -1830,55 +1833,55 @@
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>3.7112764399999998</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>5.8885601693850003</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>5.2159162300000004</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>4.0388354399999997</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>2.6522999999999999</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>2.8048000000000002</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <v>3.3843000000000001</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="16">
         <v>2.6101628799999999</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="16">
         <v>2.9603000000000002</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="16">
         <v>2.46998995</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="16">
         <v>2.7579627499999999</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="16">
         <v>2.38037886</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="16">
         <v>1.9010526400000001</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="16">
         <v>2.1495151699999999</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="16">
         <v>2.3065688400000002</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="16">
         <v>2.0540566999999998</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="16">
         <v>1.97023477</v>
       </c>
       <c r="T23" s="9">
@@ -1943,75 +1946,75 @@
       <c r="T24" s="7">
         <v>2.5978983499999999</v>
       </c>
-      <c r="AG24" s="16" t="s">
+      <c r="AG24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>1.7074406200000001</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <v>3.6823497055669998</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>3.0591167600000002</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>1.69948196</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <v>1.5342</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>1.6093</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <v>1.7496</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="16">
         <v>1.51448805</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="16">
         <v>1.5727</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="16">
         <v>1.4444677399999999</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="16">
         <v>1.4069400400000001</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="16">
         <v>1.28337521</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="16">
         <v>1.3527094900000001</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="16">
         <v>1.22087151</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="16">
         <v>1.93502967</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="16">
         <v>1.5406963</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="16">
         <v>1.42194562</v>
       </c>
       <c r="T25" s="9">
         <v>1.1995928199999999</v>
       </c>
-      <c r="AG25" s="16" t="s">
+      <c r="AG25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
@@ -2076,55 +2079,55 @@
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>3.49575513</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <v>6.048082627875</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>8.2183487599999996</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>6.9100863700000001</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <v>4.9446000000000003</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>5.7641</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <v>5.4067999999999996</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <v>5.7490794699999999</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="16">
         <v>3.6242000000000001</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="16">
         <v>4.2847028600000003</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="16">
         <v>3.8193268800000002</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="16">
         <v>3.6262164700000001</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="16">
         <v>2.4838113100000001</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="16">
         <v>3.2731736900000001</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="16">
         <v>2.9151031500000002</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="16">
         <v>2.90736704</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="16">
         <v>2.6459130800000001</v>
       </c>
       <c r="T27" s="9">
@@ -2194,55 +2197,55 @@
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>2.0778713299999998</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>3.5439068643409999</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>3.9829591600000001</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>3.2654603999999998</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>3.0867</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>2.9163000000000001</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>4.1970000000000001</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="16">
         <v>3.3240790900000001</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="16">
         <v>2.9449999999999998</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="16">
         <v>3.3013534600000001</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="16">
         <v>3.3777061900000001</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="16">
         <v>2.7125106099999998</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="16">
         <v>2.0048189700000001</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="16">
         <v>2.8122661099999999</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="16">
         <v>3.0663989100000002</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="16">
         <v>3.11087274</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="16">
         <v>2.3051548999999998</v>
       </c>
       <c r="T29" s="9">
@@ -2312,55 +2315,55 @@
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>4.3705438000000001</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <v>5.372948325976</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>6.6877965100000001</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <v>4.9442936800000004</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <v>4.4452999999999996</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>2.9325000000000001</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="16">
         <v>4.3503999999999996</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="16">
         <v>3.60542512</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="16">
         <v>2.8570000000000002</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="16">
         <v>3.0669195299999998</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="16">
         <v>3.8153369100000001</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="16">
         <v>2.5478531000000002</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="16">
         <v>2.8623255900000002</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="16">
         <v>2.5887040799999999</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="16">
         <v>2.93751345</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="16">
         <v>2.8216404399999999</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="16">
         <v>2.6154821099999999</v>
       </c>
       <c r="T31" s="9">
@@ -2430,55 +2433,55 @@
       <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>3.1892369399999998</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <v>4.4766470929609996</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>3.7868061700000002</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>3.29395449</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <v>3.8391000000000002</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>2.9788000000000001</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <v>3.6738</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="16">
         <v>3.5517481200000001</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="16">
         <v>3.7774000000000001</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="16">
         <v>3.4025774700000002</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="16">
         <v>3.66340975</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="16">
         <v>3.1207157900000002</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="16">
         <v>2.76848363</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="16">
         <v>3.1517385600000001</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="16">
         <v>3.31719673</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="16">
         <v>3.25942614</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="16">
         <v>3.0852135999999999</v>
       </c>
       <c r="T33" s="9">
@@ -2548,55 +2551,55 @@
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>2.6843662699999999</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <v>5.6061506395559997</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>2.75095745</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>3.3643901899999999</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <v>2.5878000000000001</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>4.2138</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <v>3.4125999999999999</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="16">
         <v>3.3017253599999998</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="16">
         <v>2.5969000000000002</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="16">
         <v>2.9266840200000002</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="16">
         <v>3.0652180800000002</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="16">
         <v>2.35307362</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="16">
         <v>2.4165561900000001</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="16">
         <v>2.1384338700000001</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="16">
         <v>1.9840478500000001</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="16">
         <v>1.8953752399999999</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="16">
         <v>1.65543156</v>
       </c>
       <c r="T35" s="9">
@@ -2666,55 +2669,55 @@
       <c r="B37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>3.3246891199999999</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>4.5902187027619998</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>3.8974136599999998</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>4.1611725100000001</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <v>3.8961000000000001</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <v>3.5958999999999999</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <v>3.7721</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="16">
         <v>2.7536017500000001</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="16">
         <v>2.7875999999999999</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="16">
         <v>3.2980424699999999</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="16">
         <v>2.74256441</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="16">
         <v>2.3599748699999998</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="16">
         <v>3.3692865599999999</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="16">
         <v>2.93788917</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="16">
         <v>2.3583399300000001</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="16">
         <v>2.8225105899999998</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="16">
         <v>2.7216196799999999</v>
       </c>
       <c r="T37" s="9">
@@ -2723,7 +2726,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="10">
         <v>2.9</v>
@@ -2780,12 +2783,12 @@
     </row>
     <row r="39" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82653437-0B15-42E5-9EC7-C93D1BD5D3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE1AA5-5CE3-4413-96DE-1EF674103B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -164,23 +164,69 @@
     <t>Trim IV</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Tren I</t>
   </si>
   <si>
     <t>Sector laboral, Tasa de desempleo</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Tasa de desempleo nacional</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +266,20 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -350,12 +414,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -414,6 +498,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -656,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AI42"/>
+  <dimension ref="B1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -665,31 +791,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="18" width="7.296875" style="4" customWidth="1"/>
     <col min="19" max="19" width="6.796875" style="4" customWidth="1"/>
     <col min="20" max="20" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="11.19921875" style="4"/>
+    <col min="22" max="22" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.3984375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="11.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -700,9 +825,9 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
@@ -718,7 +843,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
@@ -736,7 +861,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
@@ -768,11 +893,20 @@
         <v>2024</v>
       </c>
       <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>39</v>
@@ -825,8 +959,11 @@
       <c r="T5" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="38"/>
+    </row>
+    <row r="6" spans="2:24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
@@ -884,8 +1021,17 @@
       <c r="T6" s="7">
         <v>3.3599171399999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V6" s="25">
+        <v>2024</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -943,8 +1089,17 @@
       <c r="T7" s="9">
         <v>2.7377111599999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V7" s="24">
+        <v>2024</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="32">
+        <v>3.0373716149260002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
@@ -1002,8 +1157,17 @@
       <c r="T8" s="7">
         <v>2.4133540199999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V8" s="25">
+        <v>2024</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1225,17 @@
       <c r="T9" s="9">
         <v>1.9977889</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" ht="36" x14ac:dyDescent="0.35">
+      <c r="V9" s="24">
+        <v>2024</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="32">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1120,8 +1293,17 @@
       <c r="T10" s="7">
         <v>3.7141300300000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V10" s="25">
+        <v>2024</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1179,8 +1361,17 @@
       <c r="T11" s="9">
         <v>2.1113554699999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V11" s="24">
+        <v>2024</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="32">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1238,8 +1429,17 @@
       <c r="T12" s="7">
         <v>1.5747210899999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V12" s="25">
+        <v>2024</v>
+      </c>
+      <c r="W12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1297,8 +1497,17 @@
       <c r="T13" s="9">
         <v>2.5346683200000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V13" s="24">
+        <v>2024</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" s="32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
@@ -1356,8 +1565,17 @@
       <c r="T14" s="7">
         <v>4.0401582200000004</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V14" s="27">
+        <v>2024</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" s="11">
+        <v>2.8530240195499998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +1633,17 @@
       <c r="T15" s="9">
         <v>2.81245681</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="V15" s="29">
+        <v>2023</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="33">
+        <v>2.613759785893</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1474,8 +1701,17 @@
       <c r="T16" s="7">
         <v>2.9185895300000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="V16" s="25">
+        <v>2023</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" s="7">
+        <v>2.7127082932</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
@@ -1533,8 +1769,17 @@
       <c r="T17" s="9">
         <v>1.0426476600000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="V17" s="34">
+        <v>2023</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="36">
+        <v>2.7459961463110001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1838,7 @@
         <v>2.4432579200000002</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1897,7 @@
         <v>2.2026988300000001</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1956,7 @@
         <v>3.2837190600000001</v>
       </c>
     </row>
-    <row r="21" spans="2:35" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:34" ht="36" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +2015,7 @@
         <v>1.72129256</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +2074,7 @@
         <v>1.57683832</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +2133,7 @@
         <v>2.1533645899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
@@ -1946,13 +2191,13 @@
       <c r="T24" s="7">
         <v>2.5978983499999999</v>
       </c>
-      <c r="AG24" s="17" t="s">
+      <c r="AF24" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
@@ -2010,13 +2255,13 @@
       <c r="T25" s="9">
         <v>1.1995928199999999</v>
       </c>
-      <c r="AG25" s="17" t="s">
+      <c r="AF25" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="AG25" s="17"/>
       <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
@@ -2075,7 +2320,7 @@
         <v>2.3299062099999999</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2379,7 @@
         <v>2.74864905</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -2193,7 +2438,7 @@
         <v>2.6329119599999999</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2497,7 @@
         <v>2.64475039</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -2311,7 +2556,7 @@
         <v>2.4113883999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2615,7 @@
         <v>3.6200527199999999</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
@@ -2779,11 +3024,13 @@
       <c r="S38" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T38" s="11"/>
+      <c r="T38" s="23">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="39" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
@@ -2798,15 +3045,18 @@
       <c r="S42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="AG25:AI25"/>
+  <mergeCells count="11">
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AF25:AH25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE1AA5-5CE3-4413-96DE-1EF674103B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E7FCEA-667F-47DF-99D1-D3456477F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -230,19 +230,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -250,26 +250,26 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -481,24 +481,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -523,23 +505,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,7 +552,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -570,28 +560,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -600,14 +590,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -784,37 +774,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="7.296875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="11.19921875" style="4"/>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="18" width="7.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="6.75" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7.375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="4" customWidth="1"/>
+    <col min="24" max="24" width="14.375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12" style="4" customWidth="1"/>
+    <col min="26" max="26" width="13.375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="8" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10.125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="7.875" style="4" customWidth="1"/>
+    <col min="32" max="32" width="25" style="4" customWidth="1"/>
+    <col min="33" max="33" width="7.75" style="4" customWidth="1"/>
+    <col min="34" max="34" width="9.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -825,7 +815,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -843,7 +833,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
@@ -861,50 +851,50 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="31">
         <v>2020</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31">
         <v>2021</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31">
         <v>2022</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31">
         <v>2023</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32">
         <v>2024</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="V4" s="37" t="s">
+      <c r="T4" s="33"/>
+      <c r="V4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
+    <row r="5" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
       <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
@@ -959,11 +949,11 @@
       <c r="T5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
-    </row>
-    <row r="6" spans="2:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+    </row>
+    <row r="6" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
@@ -1021,17 +1011,17 @@
       <c r="T6" s="7">
         <v>3.3599171399999999</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="18">
         <v>2024</v>
       </c>
-      <c r="W6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -1089,17 +1079,17 @@
       <c r="T7" s="9">
         <v>2.7377111599999999</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="19">
         <v>2024</v>
       </c>
-      <c r="W7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="32">
-        <v>3.0373716149260002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
@@ -1157,17 +1147,17 @@
       <c r="T8" s="7">
         <v>2.4133540199999999</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="18">
         <v>2024</v>
       </c>
-      <c r="W8" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="26">
+        <v>3.0373716149260002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1225,17 +1215,17 @@
       <c r="T9" s="9">
         <v>1.9977889</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="19">
         <v>2024</v>
       </c>
-      <c r="W9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" s="32">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1293,17 +1283,17 @@
       <c r="T10" s="7">
         <v>3.7141300300000002</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="18">
         <v>2024</v>
       </c>
-      <c r="W10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="X10" s="7">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="26">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1361,17 +1351,17 @@
       <c r="T11" s="9">
         <v>2.1113554699999999</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="19">
         <v>2024</v>
       </c>
-      <c r="W11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" s="32">
+      <c r="W11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="7">
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1429,17 +1419,17 @@
       <c r="T12" s="7">
         <v>1.5747210899999999</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="18">
         <v>2024</v>
       </c>
-      <c r="W12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="26">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1497,17 +1487,17 @@
       <c r="T13" s="9">
         <v>2.5346683200000002</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="19">
         <v>2024</v>
       </c>
-      <c r="W13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="X13" s="32">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
@@ -1565,17 +1555,17 @@
       <c r="T14" s="7">
         <v>4.0401582200000004</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="18">
         <v>2024</v>
       </c>
-      <c r="W14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14" s="11">
-        <v>2.8530240195499998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="W14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1633,17 +1623,17 @@
       <c r="T15" s="9">
         <v>2.81245681</v>
       </c>
-      <c r="V15" s="29">
-        <v>2023</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="X15" s="33">
-        <v>2.613759785893</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="V15" s="21">
+        <v>2024</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="11">
+        <v>2.8530240195499998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1701,17 +1691,17 @@
       <c r="T16" s="7">
         <v>2.9185895300000002</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16" s="23">
         <v>2023</v>
       </c>
-      <c r="W16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="X16" s="7">
-        <v>2.7127082932</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="W16" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="27">
+        <v>2.613759785893</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
@@ -1769,17 +1759,17 @@
       <c r="T17" s="9">
         <v>1.0426476600000001</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="21">
         <v>2023</v>
       </c>
-      <c r="W17" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" s="36">
-        <v>2.7459961463110001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="W17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" s="11">
+        <v>2.7127082932</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1837,8 +1827,11 @@
       <c r="T18" s="7">
         <v>2.4432579200000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1896,8 +1889,11 @@
       <c r="T19" s="9">
         <v>2.2026988300000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1952,7 @@
         <v>3.2837190600000001</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>1.72129256</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2070,7 @@
         <v>1.57683832</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2129,7 @@
         <v>2.1533645899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
@@ -2191,13 +2187,13 @@
       <c r="T24" s="7">
         <v>2.5978983499999999</v>
       </c>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
@@ -2255,13 +2251,13 @@
       <c r="T25" s="9">
         <v>1.1995928199999999</v>
       </c>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>2.3299062099999999</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>2.74864905</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2434,7 @@
         <v>2.6329119599999999</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>2.64475039</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>2.4113883999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>3.6200527199999999</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2670,7 @@
         <v>4.0180364800000001</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
@@ -2733,7 +2729,7 @@
         <v>3.4300383700000001</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
@@ -2792,7 +2788,7 @@
         <v>2.4487593599999999</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2847,7 @@
         <v>2.0118811999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>1.7534417600000001</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>31</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>2.87226252</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>37</v>
       </c>
@@ -3024,24 +3020,24 @@
       <c r="S38" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="17">
         <v>2.8</v>
       </c>
     </row>
-    <row r="39" spans="2:20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S42" s="14"/>
     </row>
   </sheetData>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE953193-4F7A-4D17-8890-45039567798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5AA42-1A0D-464A-B037-8610C1BACC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -215,7 +215,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -372,12 +372,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,9 +466,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -427,11 +481,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -456,6 +505,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -697,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AI42"/>
+  <dimension ref="B1:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -711,25 +786,25 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="18" width="7.25" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.75" style="1" customWidth="1"/>
-    <col min="20" max="21" width="7.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="7.75" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="11" style="1"/>
+    <col min="20" max="22" width="7.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="6.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="7.875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -740,7 +815,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:25" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -758,7 +833,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -776,51 +851,52 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>2020</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26">
         <v>2021</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26">
         <v>2022</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26">
         <v>2023</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="29">
         <v>2024</v>
       </c>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
-      <c r="W4" s="31" t="s">
+      <c r="V4" s="31"/>
+      <c r="X4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="Y4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Z4" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="29"/>
+    <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
@@ -878,11 +954,14 @@
       <c r="U5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-    </row>
-    <row r="6" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+    </row>
+    <row r="6" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -899,132 +978,138 @@
         <v>5.1975375000000001</v>
       </c>
       <c r="G6" s="7">
-        <v>3.916450871965</v>
+        <v>3.6223999999999998</v>
       </c>
       <c r="H6" s="7">
-        <v>3.9379839490120001</v>
+        <v>3.8715999999999999</v>
       </c>
       <c r="I6" s="7">
-        <v>4.284892673701</v>
+        <v>4.6257000000000001</v>
       </c>
       <c r="J6" s="7">
-        <v>4.2816570241739997</v>
+        <v>4.3772590500000002</v>
       </c>
       <c r="K6" s="7">
-        <v>3.8561136307989998</v>
+        <v>3.5196999999999998</v>
       </c>
       <c r="L6" s="7">
-        <v>3.8432853055659999</v>
+        <v>3.7681974999999999</v>
       </c>
       <c r="M6" s="7">
-        <v>3.7329663073170001</v>
+        <v>4.0392281700000003</v>
       </c>
       <c r="N6" s="7">
-        <v>3.6518913787809999</v>
+        <v>3.7675553700000002</v>
       </c>
       <c r="O6" s="7">
-        <v>3.334212040817</v>
+        <v>3.0196228999999999</v>
       </c>
       <c r="P6" s="7">
-        <v>3.2784280500029999</v>
+        <v>3.1979643800000002</v>
       </c>
       <c r="Q6" s="7">
-        <v>2.9229430322200001</v>
+        <v>3.17738151</v>
       </c>
       <c r="R6" s="7">
-        <v>3.3876944051239999</v>
+        <v>3.5058133300000001</v>
       </c>
       <c r="S6" s="7">
-        <v>3.3228278519279999</v>
+        <v>3.0003754100000002</v>
       </c>
       <c r="T6" s="7">
-        <v>3.4528641649459999</v>
-      </c>
-      <c r="U6" s="8">
-        <v>3.8890493938109998</v>
-      </c>
-      <c r="W6" s="15">
-        <v>2024</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="25">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.45">
+        <v>3.3599171399999999</v>
+      </c>
+      <c r="U6" s="7">
+        <v>4.2345522500000001</v>
+      </c>
+      <c r="V6" s="8">
+        <v>2.26459755</v>
+      </c>
+      <c r="X6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="28">
         <v>2.1679783399999999</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="28">
         <v>3.7235528235030002</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="28">
         <v>2.7481679699999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="28">
         <v>2.8800737700000001</v>
       </c>
-      <c r="G7" s="13">
-        <v>2.7864680638579999</v>
-      </c>
-      <c r="H7" s="13">
-        <v>2.3678640450900001</v>
-      </c>
-      <c r="I7" s="13">
-        <v>2.5943222887349999</v>
-      </c>
-      <c r="J7" s="13">
-        <v>2.1646226546270002</v>
-      </c>
-      <c r="K7" s="13">
-        <v>2.1036580964740001</v>
-      </c>
-      <c r="L7" s="13">
-        <v>2.4065274031510002</v>
-      </c>
-      <c r="M7" s="13">
-        <v>2.3600923853340001</v>
-      </c>
-      <c r="N7" s="13">
-        <v>2.8291161185920002</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1.9063863770080001</v>
-      </c>
-      <c r="P7" s="13">
-        <v>2.1870251338109998</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>2.2439413267230002</v>
-      </c>
-      <c r="R7" s="13">
-        <v>2.334383735571</v>
-      </c>
-      <c r="S7" s="13">
-        <v>2.3730026305280001</v>
-      </c>
-      <c r="T7" s="13">
-        <v>2.5879649638269999</v>
-      </c>
-      <c r="U7" s="14">
-        <v>2.5166479675670002</v>
-      </c>
-      <c r="W7" s="10">
+      <c r="G7" s="28">
+        <v>2.5548000000000002</v>
+      </c>
+      <c r="H7" s="28">
+        <v>2.4466999999999999</v>
+      </c>
+      <c r="I7" s="28">
+        <v>2.8795000000000002</v>
+      </c>
+      <c r="J7" s="28">
+        <v>2.0435054799999999</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1.9105000000000001</v>
+      </c>
+      <c r="L7" s="28">
+        <v>2.50983702</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2.5925436199999998</v>
+      </c>
+      <c r="N7" s="28">
+        <v>2.7022449599999998</v>
+      </c>
+      <c r="O7" s="28">
+        <v>1.7122155299999999</v>
+      </c>
+      <c r="P7" s="28">
+        <v>2.3074277599999999</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>2.4388878200000002</v>
+      </c>
+      <c r="R7" s="28">
+        <v>2.24539394</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2.12566465</v>
+      </c>
+      <c r="T7" s="28">
+        <v>2.7377111599999999</v>
+      </c>
+      <c r="U7" s="28">
+        <v>2.7233209299999999</v>
+      </c>
+      <c r="V7" s="13">
+        <v>2.4591017100000001</v>
+      </c>
+      <c r="X7" s="14">
         <v>2024</v>
       </c>
-      <c r="X7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1041,132 +1126,138 @@
         <v>5.4249695200000003</v>
       </c>
       <c r="G8" s="7">
-        <v>5.2321871093079997</v>
+        <v>4.9817999999999998</v>
       </c>
       <c r="H8" s="7">
-        <v>4.5345999119140004</v>
+        <v>4.4095000000000004</v>
       </c>
       <c r="I8" s="7">
-        <v>3.7956815222200002</v>
+        <v>4.2548000000000004</v>
       </c>
       <c r="J8" s="7">
-        <v>2.729188802495</v>
+        <v>2.5921986800000001</v>
       </c>
       <c r="K8" s="7">
-        <v>3.0156755598729998</v>
+        <v>2.8748</v>
       </c>
       <c r="L8" s="7">
-        <v>2.7868283277049999</v>
+        <v>2.7329535300000001</v>
       </c>
       <c r="M8" s="7">
-        <v>2.5630441993309998</v>
+        <v>2.8679043100000001</v>
       </c>
       <c r="N8" s="7">
-        <v>3.0239520303409999</v>
+        <v>2.8507853299999999</v>
       </c>
       <c r="O8" s="7">
-        <v>2.8874176839949999</v>
+        <v>2.7593624000000001</v>
       </c>
       <c r="P8" s="7">
-        <v>2.731072326939</v>
+        <v>2.7006969299999999</v>
       </c>
       <c r="Q8" s="7">
-        <v>2.8688028440640001</v>
+        <v>3.1861574899999998</v>
       </c>
       <c r="R8" s="7">
-        <v>2.3974416393309999</v>
+        <v>2.26333947</v>
       </c>
       <c r="S8" s="7">
-        <v>2.3267645749449999</v>
+        <v>2.2207754199999998</v>
       </c>
       <c r="T8" s="7">
-        <v>2.4246086955920001</v>
-      </c>
-      <c r="U8" s="8">
-        <v>2.2827855600809999</v>
-      </c>
-      <c r="W8" s="15">
+        <v>2.4133540199999999</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2.5204771899999998</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1.8888809900000001</v>
+      </c>
+      <c r="X8" s="10">
         <v>2024</v>
       </c>
-      <c r="X8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="28">
         <v>2.7825349500000001</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="28">
         <v>4.727600453</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="28">
         <v>3.8260798</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="28">
         <v>3.3896922300000001</v>
       </c>
-      <c r="G9" s="13">
-        <v>2.9260000000000002</v>
-      </c>
-      <c r="H9" s="13">
-        <v>2.895</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G9" s="28">
+        <v>2.9264000000000001</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2.8953000000000002</v>
+      </c>
+      <c r="I9" s="28">
         <v>3.0569999999999999</v>
       </c>
-      <c r="J9" s="13">
-        <v>2.956</v>
-      </c>
-      <c r="K9" s="13">
-        <v>3.0680000000000001</v>
-      </c>
-      <c r="L9" s="13">
-        <v>2.9529999999999998</v>
-      </c>
-      <c r="M9" s="13">
-        <v>2.298</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1.976</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1.762</v>
-      </c>
-      <c r="P9" s="13">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>1.819</v>
-      </c>
-      <c r="R9" s="13">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="S9" s="13">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="T9" s="13">
-        <v>1.998</v>
-      </c>
-      <c r="U9" s="14">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="W9" s="10">
+      <c r="J9" s="28">
+        <v>2.9558035199999999</v>
+      </c>
+      <c r="K9" s="28">
+        <v>3.0680999999999998</v>
+      </c>
+      <c r="L9" s="28">
+        <v>2.95330073</v>
+      </c>
+      <c r="M9" s="28">
+        <v>2.2977208999999998</v>
+      </c>
+      <c r="N9" s="28">
+        <v>1.97640992</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1.7623953999999999</v>
+      </c>
+      <c r="P9" s="28">
+        <v>1.7590476799999999</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>1.81924446</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1.7151124</v>
+      </c>
+      <c r="S9" s="28">
+        <v>1.56255849</v>
+      </c>
+      <c r="T9" s="28">
+        <v>1.9977889</v>
+      </c>
+      <c r="U9" s="28">
+        <v>1.9509284</v>
+      </c>
+      <c r="V9" s="13">
+        <v>1.8974239500000001</v>
+      </c>
+      <c r="X9" s="14">
         <v>2024</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1183,132 +1274,138 @@
         <v>6.1579439200000001</v>
       </c>
       <c r="G10" s="7">
-        <v>5.0450099312310002</v>
+        <v>5.1109999999999998</v>
       </c>
       <c r="H10" s="7">
-        <v>4.8425654804280001</v>
+        <v>4.8421000000000003</v>
       </c>
       <c r="I10" s="7">
-        <v>4.9033018794799998</v>
+        <v>4.9301000000000004</v>
       </c>
       <c r="J10" s="7">
-        <v>4.8853961321519996</v>
+        <v>4.8089200300000003</v>
       </c>
       <c r="K10" s="7">
-        <v>4.8981265761069999</v>
+        <v>5.0227000000000004</v>
       </c>
       <c r="L10" s="7">
-        <v>4.1277788305080003</v>
+        <v>4.02556783</v>
       </c>
       <c r="M10" s="7">
-        <v>4.2114127749380001</v>
+        <v>4.2434244200000002</v>
       </c>
       <c r="N10" s="7">
-        <v>3.4219949397459999</v>
+        <v>3.41465789</v>
       </c>
       <c r="O10" s="7">
-        <v>3.5382692452020001</v>
+        <v>3.6283322299999998</v>
       </c>
       <c r="P10" s="7">
-        <v>3.837110909442</v>
+        <v>3.70272669</v>
       </c>
       <c r="Q10" s="7">
-        <v>3.8621730233639999</v>
+        <v>3.87742458</v>
       </c>
       <c r="R10" s="7">
-        <v>4.2868493586199996</v>
+        <v>4.3396756500000002</v>
       </c>
       <c r="S10" s="7">
-        <v>4.0731119449989999</v>
+        <v>4.1670313099999996</v>
       </c>
       <c r="T10" s="7">
-        <v>3.8849175631590001</v>
-      </c>
-      <c r="U10" s="8">
-        <v>4.1324050217900004</v>
-      </c>
-      <c r="W10" s="15">
+        <v>3.7141300300000002</v>
+      </c>
+      <c r="U10" s="7">
+        <v>4.1487944199999998</v>
+      </c>
+      <c r="V10" s="8">
+        <v>3.50216284</v>
+      </c>
+      <c r="X10" s="10">
         <v>2024</v>
       </c>
-      <c r="X10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="25">
-        <v>3.0373716149260002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="28">
         <v>3.1287217100000002</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="28">
         <v>5.6749883899600002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="28">
         <v>4.1445264799999997</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="28">
         <v>3.8091646199999998</v>
       </c>
-      <c r="G11" s="13">
-        <v>3.2741021632340002</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3.324685908542</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2.762895665841</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3.1064431078450001</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2.8434344523370001</v>
-      </c>
-      <c r="L11" s="13">
-        <v>2.659575809079</v>
-      </c>
-      <c r="M11" s="13">
-        <v>2.4680012807880001</v>
-      </c>
-      <c r="N11" s="13">
-        <v>2.3422607766170001</v>
-      </c>
-      <c r="O11" s="13">
-        <v>2.2016678757700001</v>
-      </c>
-      <c r="P11" s="13">
-        <v>2.284466294719</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>2.4202061151369998</v>
-      </c>
-      <c r="R11" s="13">
-        <v>2.2823914984110001</v>
-      </c>
-      <c r="S11" s="13">
-        <v>2.1843399947019999</v>
-      </c>
-      <c r="T11" s="13">
-        <v>2.1765735688199999</v>
-      </c>
-      <c r="U11" s="14">
-        <v>2.2143704784409999</v>
-      </c>
-      <c r="W11" s="10">
+      <c r="G11" s="28">
+        <v>3.2056</v>
+      </c>
+      <c r="H11" s="28">
+        <v>3.1979000000000002</v>
+      </c>
+      <c r="I11" s="28">
+        <v>2.9165000000000001</v>
+      </c>
+      <c r="J11" s="28">
+        <v>3.12393499</v>
+      </c>
+      <c r="K11" s="28">
+        <v>2.7711999999999999</v>
+      </c>
+      <c r="L11" s="28">
+        <v>2.56226011</v>
+      </c>
+      <c r="M11" s="28">
+        <v>2.6098454000000002</v>
+      </c>
+      <c r="N11" s="28">
+        <v>2.3576337000000001</v>
+      </c>
+      <c r="O11" s="28">
+        <v>2.1347757700000001</v>
+      </c>
+      <c r="P11" s="28">
+        <v>2.2065504499999999</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>2.5596532600000002</v>
+      </c>
+      <c r="R11" s="28">
+        <v>2.3033615099999998</v>
+      </c>
+      <c r="S11" s="28">
+        <v>2.10576973</v>
+      </c>
+      <c r="T11" s="28">
+        <v>2.1113554699999999</v>
+      </c>
+      <c r="U11" s="28">
+        <v>2.3396167499999998</v>
+      </c>
+      <c r="V11" s="13">
+        <v>2.2341665100000001</v>
+      </c>
+      <c r="X11" s="14">
         <v>2024</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="24">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>3.0373716149260002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1325,132 +1422,138 @@
         <v>2.7257753299999998</v>
       </c>
       <c r="G12" s="7">
-        <v>3.3286316309039998</v>
+        <v>3.1741999999999999</v>
       </c>
       <c r="H12" s="7">
-        <v>2.9265296860659999</v>
+        <v>2.9087000000000001</v>
       </c>
       <c r="I12" s="7">
-        <v>3.060398717809</v>
+        <v>3.2826</v>
       </c>
       <c r="J12" s="7">
-        <v>3.4288278583760001</v>
+        <v>3.3313089599999999</v>
       </c>
       <c r="K12" s="7">
-        <v>2.5465677448780002</v>
+        <v>2.4994999999999998</v>
       </c>
       <c r="L12" s="7">
-        <v>2.6709601788319999</v>
+        <v>2.58906444</v>
       </c>
       <c r="M12" s="7">
-        <v>2.1432763111390001</v>
+        <v>2.2884669</v>
       </c>
       <c r="N12" s="7">
-        <v>2.3670343273780001</v>
+        <v>2.3269791999999998</v>
       </c>
       <c r="O12" s="7">
-        <v>2.516291966696</v>
+        <v>2.4880096100000002</v>
       </c>
       <c r="P12" s="7">
-        <v>1.913994565446</v>
+        <v>1.8391338800000001</v>
       </c>
       <c r="Q12" s="7">
-        <v>2.3451714524849998</v>
+        <v>2.4787712599999998</v>
       </c>
       <c r="R12" s="7">
-        <v>1.74404854923</v>
+        <v>1.73475884</v>
       </c>
       <c r="S12" s="7">
-        <v>1.7093664361730001</v>
+        <v>1.6975867600000001</v>
       </c>
       <c r="T12" s="7">
-        <v>1.652423505304</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1.865595654839</v>
-      </c>
-      <c r="W12" s="15">
+        <v>1.5747210899999999</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1.96987321</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2.7596628999999999</v>
+      </c>
+      <c r="X12" s="10">
         <v>2024</v>
       </c>
-      <c r="X12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="28">
         <v>3.4911393300000002</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="28">
         <v>3.0033722905200002</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="28">
         <v>4.6977971600000004</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="28">
         <v>3.7350676799999998</v>
       </c>
-      <c r="G13" s="13">
-        <v>3.7082011587160002</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3.4912834561710002</v>
-      </c>
-      <c r="I13" s="13">
-        <v>2.8824467454190001</v>
-      </c>
-      <c r="J13" s="13">
-        <v>3.362023280366</v>
-      </c>
-      <c r="K13" s="13">
-        <v>2.4642306146070001</v>
-      </c>
-      <c r="L13" s="13">
-        <v>2.376162659357</v>
-      </c>
-      <c r="M13" s="13">
-        <v>2.3227789988729999</v>
-      </c>
-      <c r="N13" s="13">
-        <v>2.3135779956909999</v>
-      </c>
-      <c r="O13" s="13">
-        <v>2.6792549492459998</v>
-      </c>
-      <c r="P13" s="13">
-        <v>2.3970220918390002</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>2.6316907447959998</v>
-      </c>
-      <c r="R13" s="13">
-        <v>2.2355848736690001</v>
-      </c>
-      <c r="S13" s="13">
-        <v>2.176847640629</v>
-      </c>
-      <c r="T13" s="13">
-        <v>2.4479240375539999</v>
-      </c>
-      <c r="U13" s="14">
-        <v>2.4399114972530001</v>
-      </c>
-      <c r="W13" s="10">
+      <c r="G13" s="28">
+        <v>3.9754999999999998</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3.6124000000000001</v>
+      </c>
+      <c r="I13" s="28">
+        <v>3.0286</v>
+      </c>
+      <c r="J13" s="28">
+        <v>2.8667256700000001</v>
+      </c>
+      <c r="K13" s="28">
+        <v>2.5998000000000001</v>
+      </c>
+      <c r="L13" s="28">
+        <v>2.4555326800000001</v>
+      </c>
+      <c r="M13" s="28">
+        <v>2.4653640399999999</v>
+      </c>
+      <c r="N13" s="28">
+        <v>1.9890553399999999</v>
+      </c>
+      <c r="O13" s="28">
+        <v>2.7844147700000001</v>
+      </c>
+      <c r="P13" s="28">
+        <v>2.4785179099999999</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>2.81497544</v>
+      </c>
+      <c r="R13" s="28">
+        <v>1.92982532</v>
+      </c>
+      <c r="S13" s="28">
+        <v>2.2383546399999998</v>
+      </c>
+      <c r="T13" s="28">
+        <v>2.5346683200000002</v>
+      </c>
+      <c r="U13" s="28">
+        <v>2.62463011</v>
+      </c>
+      <c r="V13" s="13">
+        <v>2.1212565400000001</v>
+      </c>
+      <c r="X13" s="14">
         <v>2024</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y13" s="24">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1467,132 +1570,138 @@
         <v>6.6314211299999997</v>
       </c>
       <c r="G14" s="7">
-        <v>7.5395857051709996</v>
+        <v>7.3090999999999999</v>
       </c>
       <c r="H14" s="7">
-        <v>7.1140585536660002</v>
+        <v>7.2567000000000004</v>
       </c>
       <c r="I14" s="7">
-        <v>6.7283008928820003</v>
+        <v>6.9911000000000003</v>
       </c>
       <c r="J14" s="7">
-        <v>6.0965038256530004</v>
+        <v>5.8917331700000002</v>
       </c>
       <c r="K14" s="7">
-        <v>5.980548234844</v>
+        <v>5.8476999999999997</v>
       </c>
       <c r="L14" s="7">
-        <v>5.3107611730219997</v>
+        <v>5.3983559000000003</v>
       </c>
       <c r="M14" s="7">
-        <v>5.0500174734009997</v>
+        <v>5.2519998799999996</v>
       </c>
       <c r="N14" s="7">
-        <v>4.7020133166029998</v>
+        <v>4.5306048499999996</v>
       </c>
       <c r="O14" s="7">
-        <v>3.8248934280140001</v>
+        <v>3.7525508699999999</v>
       </c>
       <c r="P14" s="7">
-        <v>4.3010571384730003</v>
+        <v>4.3695472799999999</v>
       </c>
       <c r="Q14" s="7">
-        <v>3.9187340126339998</v>
+        <v>4.0664964399999999</v>
       </c>
       <c r="R14" s="7">
-        <v>4.0453062114570004</v>
+        <v>3.90903658</v>
       </c>
       <c r="S14" s="7">
-        <v>4.0560978138049997</v>
+        <v>3.9708051100000001</v>
       </c>
       <c r="T14" s="7">
-        <v>3.964126750363</v>
-      </c>
-      <c r="U14" s="8">
-        <v>3.8388729272619999</v>
-      </c>
-      <c r="W14" s="15">
+        <v>4.0401582200000004</v>
+      </c>
+      <c r="U14" s="7">
+        <v>3.9646814699999999</v>
+      </c>
+      <c r="V14" s="8">
+        <v>3.9891847999999999</v>
+      </c>
+      <c r="X14" s="10">
         <v>2024</v>
       </c>
-      <c r="X14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="20">
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="28">
         <v>4.0551161799999997</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="28">
         <v>4.5290169577550001</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="28">
         <v>4.8087303199999996</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="28">
         <v>4.8768457500000002</v>
       </c>
-      <c r="G15" s="13">
-        <v>4.0490857091079997</v>
-      </c>
-      <c r="H15" s="13">
-        <v>4.5392544712939999</v>
-      </c>
-      <c r="I15" s="13">
-        <v>4.0547311765389997</v>
-      </c>
-      <c r="J15" s="13">
-        <v>3.6774582483899998</v>
-      </c>
-      <c r="K15" s="13">
-        <v>3.504922899236</v>
-      </c>
-      <c r="L15" s="13">
-        <v>3.2600708460300001</v>
-      </c>
-      <c r="M15" s="13">
-        <v>3.1262454897069998</v>
-      </c>
-      <c r="N15" s="13">
-        <v>3.2769187969660001</v>
-      </c>
-      <c r="O15" s="13">
-        <v>2.928976839713</v>
-      </c>
-      <c r="P15" s="13">
-        <v>2.9057428369729998</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>2.953620735441</v>
-      </c>
-      <c r="R15" s="13">
-        <v>2.9771320992789998</v>
-      </c>
-      <c r="S15" s="13">
-        <v>2.9898514251730002</v>
-      </c>
-      <c r="T15" s="13">
-        <v>2.869889206286</v>
-      </c>
-      <c r="U15" s="14">
-        <v>3.1253870812529998</v>
-      </c>
-      <c r="W15" s="10">
+      <c r="G15" s="28">
+        <v>4.1498999999999997</v>
+      </c>
+      <c r="H15" s="28">
+        <v>4.5946999999999996</v>
+      </c>
+      <c r="I15" s="28">
+        <v>4.2107999999999999</v>
+      </c>
+      <c r="J15" s="28">
+        <v>3.4306759699999998</v>
+      </c>
+      <c r="K15" s="28">
+        <v>3.5752000000000002</v>
+      </c>
+      <c r="L15" s="28">
+        <v>3.2651400499999998</v>
+      </c>
+      <c r="M15" s="28">
+        <v>3.25674844</v>
+      </c>
+      <c r="N15" s="28">
+        <v>3.0871965700000001</v>
+      </c>
+      <c r="O15" s="28">
+        <v>2.9873726999999999</v>
+      </c>
+      <c r="P15" s="28">
+        <v>2.8720078299999998</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>3.0968583000000001</v>
+      </c>
+      <c r="R15" s="28">
+        <v>2.8204127899999998</v>
+      </c>
+      <c r="S15" s="28">
+        <v>3.0459431000000001</v>
+      </c>
+      <c r="T15" s="28">
+        <v>2.81245681</v>
+      </c>
+      <c r="U15" s="28">
+        <v>3.29465232</v>
+      </c>
+      <c r="V15" s="13">
+        <v>3.0620892099999999</v>
+      </c>
+      <c r="X15" s="14">
         <v>2024</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="24">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="Y15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1609,132 +1718,138 @@
         <v>5.3365021300000004</v>
       </c>
       <c r="G16" s="7">
-        <v>5.8745474607080004</v>
+        <v>5.9120999999999997</v>
       </c>
       <c r="H16" s="7">
-        <v>5.8330168820820001</v>
+        <v>5.6089000000000002</v>
       </c>
       <c r="I16" s="7">
-        <v>4.9669356955010002</v>
+        <v>5.4138000000000002</v>
       </c>
       <c r="J16" s="7">
-        <v>4.139458191988</v>
+        <v>3.9112288300000002</v>
       </c>
       <c r="K16" s="7">
-        <v>3.6340931907580001</v>
+        <v>3.6362000000000001</v>
       </c>
       <c r="L16" s="7">
-        <v>3.0545018250910001</v>
+        <v>2.9323996499999998</v>
       </c>
       <c r="M16" s="7">
-        <v>3.6569384676840002</v>
+        <v>4.0136407199999997</v>
       </c>
       <c r="N16" s="7">
-        <v>3.2457556080160002</v>
+        <v>3.0708041800000001</v>
       </c>
       <c r="O16" s="7">
-        <v>2.9103119008789999</v>
+        <v>2.89609958</v>
       </c>
       <c r="P16" s="7">
-        <v>3.5640576317789998</v>
+        <v>3.4080963099999999</v>
       </c>
       <c r="Q16" s="7">
-        <v>2.8780308132979999</v>
+        <v>3.1750029500000001</v>
       </c>
       <c r="R16" s="7">
-        <v>3.2220329717029998</v>
+        <v>3.0617636400000001</v>
       </c>
       <c r="S16" s="7">
-        <v>3.17514136997</v>
+        <v>3.1375657399999999</v>
       </c>
       <c r="T16" s="7">
-        <v>3.0497568520459999</v>
-      </c>
-      <c r="U16" s="8">
-        <v>3.0378377914639998</v>
-      </c>
-      <c r="W16" s="15">
+        <v>2.9185895300000002</v>
+      </c>
+      <c r="U16" s="7">
+        <v>3.35085509</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2.2986714699999999</v>
+      </c>
+      <c r="X16" s="10">
         <v>2024</v>
       </c>
-      <c r="X16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="Y16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="28">
         <v>1.5839889300000001</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="28">
         <v>3.8087971061510002</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="28">
         <v>3.2862965900000001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="28">
         <v>2.4047662999999999</v>
       </c>
-      <c r="G17" s="13">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1.51</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="K17" s="13">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="M17" s="13">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="O17" s="13">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="R17" s="13">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="S17" s="13">
-        <v>1.17</v>
-      </c>
-      <c r="T17" s="13">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="U17" s="14">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="W17" s="17">
+      <c r="G17" s="28">
+        <v>1.6917</v>
+      </c>
+      <c r="H17" s="28">
+        <v>1.5095000000000001</v>
+      </c>
+      <c r="I17" s="28">
+        <v>1.5939000000000001</v>
+      </c>
+      <c r="J17" s="28">
+        <v>1.41565041</v>
+      </c>
+      <c r="K17" s="28">
+        <v>1.6037999999999999</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1.4893519</v>
+      </c>
+      <c r="M17" s="28">
+        <v>1.7187504</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0.80639112000000002</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1.7971872799999999</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0.94909533000000001</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>1.1498171100000001</v>
+      </c>
+      <c r="R17" s="28">
+        <v>0.76678526999999996</v>
+      </c>
+      <c r="S17" s="28">
+        <v>1.16993693</v>
+      </c>
+      <c r="T17" s="28">
+        <v>1.0426476600000001</v>
+      </c>
+      <c r="U17" s="28">
+        <v>1.3171719200000001</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1.2922969799999999</v>
+      </c>
+      <c r="X17" s="14">
         <v>2024</v>
       </c>
-      <c r="X17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y17" s="26">
-        <v>2.8530240195499998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="Y17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1751,117 +1866,129 @@
         <v>2.1926270099999998</v>
       </c>
       <c r="G18" s="7">
-        <v>4.2672616002429997</v>
+        <v>4.0228999999999999</v>
       </c>
       <c r="H18" s="7">
-        <v>1.9837426426539999</v>
+        <v>2.2252999999999998</v>
       </c>
       <c r="I18" s="7">
-        <v>2.8686496954430001</v>
+        <v>2.8767</v>
       </c>
       <c r="J18" s="7">
-        <v>2.9265628055059998</v>
+        <v>2.7008455599999999</v>
       </c>
       <c r="K18" s="7">
-        <v>2.3363464269960001</v>
+        <v>2.2282999999999999</v>
       </c>
       <c r="L18" s="7">
-        <v>2.3530144606140002</v>
+        <v>2.64529193</v>
       </c>
       <c r="M18" s="7">
-        <v>2.3064646069350001</v>
+        <v>2.30357053</v>
       </c>
       <c r="N18" s="7">
-        <v>2.3950464104910001</v>
+        <v>2.2008508099999999</v>
       </c>
       <c r="O18" s="7">
-        <v>2.6065330726839999</v>
+        <v>2.5105892299999999</v>
       </c>
       <c r="P18" s="7">
-        <v>2.4521728724409999</v>
+        <v>2.7417201200000001</v>
       </c>
       <c r="Q18" s="7">
-        <v>2.6109694912410002</v>
+        <v>2.61026238</v>
       </c>
       <c r="R18" s="7">
-        <v>1.997743229288</v>
+        <v>1.82158099</v>
       </c>
       <c r="S18" s="7">
-        <v>2.208471524468</v>
+        <v>2.1629558000000002</v>
       </c>
       <c r="T18" s="7">
-        <v>2.206910202125</v>
-      </c>
-      <c r="U18" s="8">
-        <v>1.91023955204</v>
-      </c>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.45">
+        <v>2.4432579200000002</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1.9092667400000001</v>
+      </c>
+      <c r="V18" s="8">
+        <v>1.8124401999999999</v>
+      </c>
+      <c r="X18" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Y18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="22">
+        <v>2.8530240195499998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="28">
         <v>2.9374560000000001</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="28">
         <v>4.1598062785690004</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="28">
         <v>5.0007939300000004</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="28">
         <v>4.0561315899999997</v>
       </c>
-      <c r="G19" s="13">
-        <v>4.0615583886550004</v>
-      </c>
-      <c r="H19" s="13">
-        <v>3.4422265750459999</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3.0384413789339999</v>
-      </c>
-      <c r="J19" s="13">
-        <v>3.0752310741739999</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2.630193118662</v>
-      </c>
-      <c r="L19" s="13">
-        <v>2.4242940942520002</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2.4755823199010001</v>
-      </c>
-      <c r="N19" s="13">
-        <v>2.3413329015189999</v>
-      </c>
-      <c r="O19" s="13">
-        <v>2.4532417025309998</v>
-      </c>
-      <c r="P19" s="13">
-        <v>2.544729891846</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>2.554073864517</v>
-      </c>
-      <c r="R19" s="13">
-        <v>2.1910782207719999</v>
-      </c>
-      <c r="S19" s="13">
-        <v>1.6470357228479999</v>
-      </c>
-      <c r="T19" s="13">
-        <v>2.2760171076439999</v>
-      </c>
-      <c r="U19" s="14">
-        <v>2.2427545710799999</v>
-      </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G19" s="28">
+        <v>3.7193999999999998</v>
+      </c>
+      <c r="H19" s="28">
+        <v>3.3462999999999998</v>
+      </c>
+      <c r="I19" s="28">
+        <v>3.3864000000000001</v>
+      </c>
+      <c r="J19" s="28">
+        <v>3.0996845999999998</v>
+      </c>
+      <c r="K19" s="28">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="L19" s="28">
+        <v>2.3443243100000002</v>
+      </c>
+      <c r="M19" s="28">
+        <v>2.8146510400000002</v>
+      </c>
+      <c r="N19" s="28">
+        <v>2.36227638</v>
+      </c>
+      <c r="O19" s="28">
+        <v>2.1535748199999998</v>
+      </c>
+      <c r="P19" s="28">
+        <v>2.4555377200000001</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>2.96040795</v>
+      </c>
+      <c r="R19" s="28">
+        <v>2.2022065500000001</v>
+      </c>
+      <c r="S19" s="28">
+        <v>1.42080725</v>
+      </c>
+      <c r="T19" s="28">
+        <v>2.2026988300000001</v>
+      </c>
+      <c r="U19" s="28">
+        <v>2.6267762800000001</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2.1288924599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1878,117 +2005,126 @@
         <v>6.3933502400000002</v>
       </c>
       <c r="G20" s="7">
-        <v>6.4828637649880001</v>
+        <v>6.5094000000000003</v>
       </c>
       <c r="H20" s="7">
-        <v>6.2599471036110002</v>
+        <v>6.1379952900000001</v>
       </c>
       <c r="I20" s="7">
-        <v>5.5543760670809998</v>
+        <v>5.8230010099999996</v>
       </c>
       <c r="J20" s="7">
-        <v>4.7971445542340003</v>
+        <v>4.6594341699999999</v>
       </c>
       <c r="K20" s="7">
-        <v>5.3051964873789998</v>
+        <v>5.3257000000000003</v>
       </c>
       <c r="L20" s="7">
-        <v>4.3549926415659996</v>
+        <v>4.21644883</v>
       </c>
       <c r="M20" s="7">
-        <v>4.5681523242260003</v>
+        <v>4.8312006600000004</v>
       </c>
       <c r="N20" s="7">
-        <v>4.5852316661239998</v>
+        <v>4.4614216500000001</v>
       </c>
       <c r="O20" s="7">
-        <v>3.3489092946839998</v>
+        <v>3.3704208599999999</v>
       </c>
       <c r="P20" s="7">
-        <v>3.808029176382</v>
+        <v>3.6444379599999999</v>
       </c>
       <c r="Q20" s="7">
-        <v>3.7921430886769998</v>
+        <v>4.0276052</v>
       </c>
       <c r="R20" s="7">
-        <v>3.6072753642580002</v>
+        <v>3.52911054</v>
       </c>
       <c r="S20" s="7">
-        <v>3.6306318834889999</v>
+        <v>3.6474478000000001</v>
       </c>
       <c r="T20" s="7">
-        <v>3.450208930704</v>
-      </c>
-      <c r="U20" s="8">
-        <v>3.7526505924240001</v>
-      </c>
-      <c r="W20" s="9"/>
+        <v>3.2837190600000001</v>
+      </c>
+      <c r="U20" s="7">
+        <v>3.9943297800000002</v>
+      </c>
+      <c r="V20" s="8">
+        <v>2.9006819199999998</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-    </row>
-    <row r="21" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="21" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="28">
         <v>2.34419829</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="28">
         <v>3.6889590710990001</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="28">
         <v>2.5568296699999999</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="28">
         <v>2.2915890600000002</v>
       </c>
-      <c r="G21" s="13">
-        <v>2.7861448627269998</v>
-      </c>
-      <c r="H21" s="13">
-        <v>2.0076904507890001</v>
-      </c>
-      <c r="I21" s="13">
-        <v>2.0508186694499999</v>
-      </c>
-      <c r="J21" s="13">
-        <v>2.4753739679839999</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1.7708423991919999</v>
-      </c>
-      <c r="L21" s="13">
-        <v>1.754052678761</v>
-      </c>
-      <c r="M21" s="13">
-        <v>1.7281741583629999</v>
-      </c>
-      <c r="N21" s="13">
-        <v>1.6182689019350001</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1.8115226563260001</v>
-      </c>
-      <c r="P21" s="13">
-        <v>2.0448711527549999</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>1.8211002519220001</v>
-      </c>
-      <c r="R21" s="13">
-        <v>2.0374824019140001</v>
-      </c>
-      <c r="S21" s="13">
-        <v>1.868306986511</v>
-      </c>
-      <c r="T21" s="13">
-        <v>1.7625844350019999</v>
-      </c>
-      <c r="U21" s="14">
-        <v>2.0683351466180002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G21" s="28">
+        <v>2.5427</v>
+      </c>
+      <c r="H21" s="28">
+        <v>1.9844999999999999</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2.1976</v>
+      </c>
+      <c r="J21" s="28">
+        <v>2.54179617</v>
+      </c>
+      <c r="K21" s="28">
+        <v>1.6212</v>
+      </c>
+      <c r="L21" s="28">
+        <v>1.72564356</v>
+      </c>
+      <c r="M21" s="28">
+        <v>1.8510605</v>
+      </c>
+      <c r="N21" s="28">
+        <v>1.6685074600000001</v>
+      </c>
+      <c r="O21" s="28">
+        <v>1.6612297199999999</v>
+      </c>
+      <c r="P21" s="28">
+        <v>1.9952102300000001</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>1.9652243899999999</v>
+      </c>
+      <c r="R21" s="28">
+        <v>2.0918819599999998</v>
+      </c>
+      <c r="S21" s="28">
+        <v>1.71727023</v>
+      </c>
+      <c r="T21" s="28">
+        <v>1.72129256</v>
+      </c>
+      <c r="U21" s="28">
+        <v>2.2302379999999999</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1.4582819899999999</v>
+      </c>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2005,114 +2141,120 @@
         <v>2.4237260799999998</v>
       </c>
       <c r="G22" s="7">
-        <v>2.4329463586600002</v>
+        <v>2.0087999999999999</v>
       </c>
       <c r="H22" s="7">
-        <v>2.5677208070019999</v>
+        <v>2.5583999999999998</v>
       </c>
       <c r="I22" s="7">
-        <v>2.1219792595400002</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="J22" s="7">
-        <v>2.3437519636320001</v>
+        <v>2.3856321299999999</v>
       </c>
       <c r="K22" s="7">
-        <v>2.2324642395569998</v>
+        <v>1.8584000000000001</v>
       </c>
       <c r="L22" s="7">
-        <v>2.1604220369070002</v>
+        <v>2.12955527</v>
       </c>
       <c r="M22" s="7">
-        <v>2.0547888991119998</v>
+        <v>2.3959254099999998</v>
       </c>
       <c r="N22" s="7">
-        <v>2.6891288844250001</v>
+        <v>2.72604252</v>
       </c>
       <c r="O22" s="7">
-        <v>1.735944675431</v>
+        <v>1.4575937000000001</v>
       </c>
       <c r="P22" s="7">
-        <v>1.8585991269140001</v>
+        <v>1.81078758</v>
       </c>
       <c r="Q22" s="7">
-        <v>1.9853462811039999</v>
+        <v>2.3303608599999999</v>
       </c>
       <c r="R22" s="7">
-        <v>1.8279699000259999</v>
+        <v>1.8469265699999999</v>
       </c>
       <c r="S22" s="7">
-        <v>1.855662309552</v>
+        <v>1.5702308</v>
       </c>
       <c r="T22" s="7">
-        <v>1.6338018360569999</v>
-      </c>
-      <c r="U22" s="8">
-        <v>1.6361352356650001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.45">
+        <v>1.57683832</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1.92952038</v>
+      </c>
+      <c r="V22" s="8">
+        <v>2.1240311300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="28">
         <v>3.7112764399999998</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="28">
         <v>5.8885601693850003</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="28">
         <v>5.2159162300000004</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="28">
         <v>4.0388354399999997</v>
       </c>
-      <c r="G23" s="13">
-        <v>2.8717621566279998</v>
-      </c>
-      <c r="H23" s="13">
-        <v>2.8578736319589999</v>
-      </c>
-      <c r="I23" s="13">
-        <v>2.9659302370809999</v>
-      </c>
-      <c r="J23" s="13">
-        <v>2.7248941157559998</v>
-      </c>
-      <c r="K23" s="13">
-        <v>3.2072288301370002</v>
-      </c>
-      <c r="L23" s="13">
-        <v>2.5313727877600001</v>
-      </c>
-      <c r="M23" s="13">
-        <v>2.4206309221179998</v>
-      </c>
-      <c r="N23" s="13">
-        <v>2.465491475701</v>
-      </c>
-      <c r="O23" s="13">
-        <v>2.0634103958560002</v>
-      </c>
-      <c r="P23" s="13">
-        <v>2.2128405374189999</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>2.0236739174160001</v>
-      </c>
-      <c r="R23" s="13">
-        <v>2.1184194856960001</v>
-      </c>
-      <c r="S23" s="13">
-        <v>2.1446022191349998</v>
-      </c>
-      <c r="T23" s="13">
-        <v>2.2172014489460001</v>
-      </c>
-      <c r="U23" s="14">
-        <v>2.3844473224459999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G23" s="28">
+        <v>2.6522999999999999</v>
+      </c>
+      <c r="H23" s="28">
+        <v>2.8048000000000002</v>
+      </c>
+      <c r="I23" s="28">
+        <v>3.3843000000000001</v>
+      </c>
+      <c r="J23" s="28">
+        <v>2.6101628799999999</v>
+      </c>
+      <c r="K23" s="28">
+        <v>2.9603000000000002</v>
+      </c>
+      <c r="L23" s="28">
+        <v>2.46998995</v>
+      </c>
+      <c r="M23" s="28">
+        <v>2.7579627499999999</v>
+      </c>
+      <c r="N23" s="28">
+        <v>2.38037886</v>
+      </c>
+      <c r="O23" s="28">
+        <v>1.9010526400000001</v>
+      </c>
+      <c r="P23" s="28">
+        <v>2.1495151699999999</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>2.3065688400000002</v>
+      </c>
+      <c r="R23" s="28">
+        <v>2.0540566999999998</v>
+      </c>
+      <c r="S23" s="28">
+        <v>1.97023477</v>
+      </c>
+      <c r="T23" s="28">
+        <v>2.1533645899999998</v>
+      </c>
+      <c r="U23" s="28">
+        <v>2.7178060300000002</v>
+      </c>
+      <c r="V23" s="13">
+        <v>2.00958266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2129,124 +2271,130 @@
         <v>4.2283530699999998</v>
       </c>
       <c r="G24" s="7">
-        <v>4.8651146211549996</v>
+        <v>4.8712999999999997</v>
       </c>
       <c r="H24" s="7">
-        <v>4.7460051127660003</v>
+        <v>4.7039</v>
       </c>
       <c r="I24" s="7">
-        <v>4.345233818654</v>
+        <v>4.6192000000000002</v>
       </c>
       <c r="J24" s="7">
-        <v>3.9778563255980002</v>
+        <v>3.7457742399999998</v>
       </c>
       <c r="K24" s="7">
-        <v>4.1744261793059998</v>
+        <v>4.2039</v>
       </c>
       <c r="L24" s="7">
-        <v>3.765076310265</v>
+        <v>3.6994154099999998</v>
       </c>
       <c r="M24" s="7">
-        <v>3.7886397559259999</v>
+        <v>4.0622808099999999</v>
       </c>
       <c r="N24" s="7">
-        <v>3.8163117014329999</v>
+        <v>3.57181149</v>
       </c>
       <c r="O24" s="7">
-        <v>3.0907391416949999</v>
+        <v>3.12374726</v>
       </c>
       <c r="P24" s="7">
-        <v>3.4585817350700001</v>
+        <v>3.3741652499999999</v>
       </c>
       <c r="Q24" s="7">
-        <v>2.9775584450300001</v>
+        <v>3.2164138599999998</v>
       </c>
       <c r="R24" s="7">
-        <v>2.8777031704790001</v>
+        <v>2.686159</v>
       </c>
       <c r="S24" s="7">
-        <v>2.7527607444719999</v>
+        <v>2.9440850799999998</v>
       </c>
       <c r="T24" s="7">
-        <v>2.8235924007430002</v>
-      </c>
-      <c r="U24" s="8">
-        <v>3.2904971228669999</v>
-      </c>
-      <c r="AG24" s="27" t="s">
+        <v>2.5978983499999999</v>
+      </c>
+      <c r="U24" s="7">
+        <v>3.5590868100000002</v>
+      </c>
+      <c r="V24" s="8">
+        <v>2.6077993899999998</v>
+      </c>
+      <c r="AH24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="28">
         <v>1.7074406200000001</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="28">
         <v>3.6823497055669998</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="28">
         <v>3.0591167600000002</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="28">
         <v>1.69948196</v>
       </c>
-      <c r="G25" s="13">
-        <v>1.5644741644489999</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1.6615341306360001</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1.7007835271239999</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1.4816765354970001</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1.6034463821180001</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1.490223169441</v>
-      </c>
-      <c r="M25" s="13">
-        <v>1.3704900840100001</v>
-      </c>
-      <c r="N25" s="13">
-        <v>1.2544715677910001</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1.380455790809</v>
-      </c>
-      <c r="P25" s="13">
-        <v>1.253090533533</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>1.889365699798</v>
-      </c>
-      <c r="R25" s="13">
-        <v>1.517600683315</v>
-      </c>
-      <c r="S25" s="13">
-        <v>1.441764250311</v>
-      </c>
-      <c r="T25" s="13">
-        <v>1.2264137790609999</v>
-      </c>
-      <c r="U25" s="14">
-        <v>1.0238848982190001</v>
-      </c>
-      <c r="AG25" s="27" t="s">
+      <c r="G25" s="28">
+        <v>1.5342</v>
+      </c>
+      <c r="H25" s="28">
+        <v>1.6093</v>
+      </c>
+      <c r="I25" s="28">
+        <v>1.7496</v>
+      </c>
+      <c r="J25" s="28">
+        <v>1.51448805</v>
+      </c>
+      <c r="K25" s="28">
+        <v>1.5727</v>
+      </c>
+      <c r="L25" s="28">
+        <v>1.4444677399999999</v>
+      </c>
+      <c r="M25" s="28">
+        <v>1.4069400400000001</v>
+      </c>
+      <c r="N25" s="28">
+        <v>1.28337521</v>
+      </c>
+      <c r="O25" s="28">
+        <v>1.3527094900000001</v>
+      </c>
+      <c r="P25" s="28">
+        <v>1.22087151</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>1.93502967</v>
+      </c>
+      <c r="R25" s="28">
+        <v>1.5406963</v>
+      </c>
+      <c r="S25" s="28">
+        <v>1.42194562</v>
+      </c>
+      <c r="T25" s="28">
+        <v>1.1995928199999999</v>
+      </c>
+      <c r="U25" s="28">
+        <v>1.04523283</v>
+      </c>
+      <c r="V25" s="13">
+        <v>1.8734331399999999</v>
+      </c>
+      <c r="AH25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2263,114 +2411,120 @@
         <v>6.00336202</v>
       </c>
       <c r="G26" s="7">
-        <v>3.8609714036540002</v>
+        <v>3.4571000000000001</v>
       </c>
       <c r="H26" s="7">
-        <v>3.956201615631</v>
+        <v>3.9681000000000002</v>
       </c>
       <c r="I26" s="7">
-        <v>3.8959332222410001</v>
+        <v>4.2224000000000004</v>
       </c>
       <c r="J26" s="7">
-        <v>3.7138042060940002</v>
+        <v>3.8452266900000001</v>
       </c>
       <c r="K26" s="7">
-        <v>3.470206762553</v>
+        <v>3.0714000000000001</v>
       </c>
       <c r="L26" s="7">
-        <v>2.99827652428</v>
+        <v>2.9620528699999999</v>
       </c>
       <c r="M26" s="7">
-        <v>2.5368576107130001</v>
+        <v>2.7308975499999999</v>
       </c>
       <c r="N26" s="7">
-        <v>2.6145619492560002</v>
+        <v>2.7928243899999998</v>
       </c>
       <c r="O26" s="7">
-        <v>2.4746495233950001</v>
+        <v>2.1502000799999998</v>
       </c>
       <c r="P26" s="7">
-        <v>2.2994021020600002</v>
+        <v>2.24190566</v>
       </c>
       <c r="Q26" s="7">
-        <v>2.4302549180109998</v>
+        <v>2.63941318</v>
       </c>
       <c r="R26" s="7">
-        <v>2.410434237559</v>
+        <v>2.6080242999999999</v>
       </c>
       <c r="S26" s="7">
-        <v>2.0319920894450001</v>
+        <v>1.7335615200000001</v>
       </c>
       <c r="T26" s="7">
-        <v>2.3978070041859998</v>
-      </c>
-      <c r="U26" s="8">
-        <v>2.3685056970009999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.45">
+        <v>2.3299062099999999</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2.5980141099999998</v>
+      </c>
+      <c r="V26" s="8">
+        <v>2.2252721599999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="28">
         <v>3.49575513</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="28">
         <v>6.048082627875</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="28">
         <v>8.2183487599999996</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="28">
         <v>6.9100863700000001</v>
       </c>
-      <c r="G27" s="13">
-        <v>6.0853652108849996</v>
-      </c>
-      <c r="H27" s="13">
-        <v>5.4936293395530003</v>
-      </c>
-      <c r="I27" s="13">
-        <v>5.114258856218</v>
-      </c>
-      <c r="J27" s="13">
-        <v>5.3519350348100003</v>
-      </c>
-      <c r="K27" s="13">
-        <v>4.41054454974</v>
-      </c>
-      <c r="L27" s="13">
-        <v>4.047561432457</v>
-      </c>
-      <c r="M27" s="13">
-        <v>3.6758532388630001</v>
-      </c>
-      <c r="N27" s="13">
-        <v>3.382285184383</v>
-      </c>
-      <c r="O27" s="13">
-        <v>2.9759236565489999</v>
-      </c>
-      <c r="P27" s="13">
-        <v>3.07618518613</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>2.8405647925589999</v>
-      </c>
-      <c r="R27" s="13">
-        <v>2.725646234539</v>
-      </c>
-      <c r="S27" s="13">
-        <v>3.1280475957170002</v>
-      </c>
-      <c r="T27" s="13">
-        <v>2.5766736514090001</v>
-      </c>
-      <c r="U27" s="14">
-        <v>2.3453452650519999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G27" s="28">
+        <v>4.9446000000000003</v>
+      </c>
+      <c r="H27" s="28">
+        <v>5.7641</v>
+      </c>
+      <c r="I27" s="28">
+        <v>5.4067999999999996</v>
+      </c>
+      <c r="J27" s="28">
+        <v>5.7490794699999999</v>
+      </c>
+      <c r="K27" s="28">
+        <v>3.6242000000000001</v>
+      </c>
+      <c r="L27" s="28">
+        <v>4.2847028600000003</v>
+      </c>
+      <c r="M27" s="28">
+        <v>3.8193268800000002</v>
+      </c>
+      <c r="N27" s="28">
+        <v>3.6262164700000001</v>
+      </c>
+      <c r="O27" s="28">
+        <v>2.4838113100000001</v>
+      </c>
+      <c r="P27" s="28">
+        <v>3.2731736900000001</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>2.9151031500000002</v>
+      </c>
+      <c r="R27" s="28">
+        <v>2.90736704</v>
+      </c>
+      <c r="S27" s="28">
+        <v>2.6459130800000001</v>
+      </c>
+      <c r="T27" s="28">
+        <v>2.74864905</v>
+      </c>
+      <c r="U27" s="28">
+        <v>2.3946212600000001</v>
+      </c>
+      <c r="V27" s="13">
+        <v>2.0692731800000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -2387,114 +2541,120 @@
         <v>8.5763562100000001</v>
       </c>
       <c r="G28" s="7">
-        <v>8.4764742890980003</v>
+        <v>8.2081</v>
       </c>
       <c r="H28" s="7">
-        <v>6.3520414733499999</v>
+        <v>6.2088999999999999</v>
       </c>
       <c r="I28" s="7">
-        <v>4.5067371378430003</v>
+        <v>4.6836000000000002</v>
       </c>
       <c r="J28" s="7">
-        <v>4.3679458458199996</v>
+        <v>4.4137932500000003</v>
       </c>
       <c r="K28" s="7">
-        <v>3.1084092050100001</v>
+        <v>3.0102000000000002</v>
       </c>
       <c r="L28" s="7">
-        <v>2.8979398939459999</v>
+        <v>2.85172706</v>
       </c>
       <c r="M28" s="7">
-        <v>2.8142957381340001</v>
+        <v>2.9265971</v>
       </c>
       <c r="N28" s="7">
-        <v>1.9530038058429999</v>
+        <v>1.9718934800000001</v>
       </c>
       <c r="O28" s="7">
-        <v>2.641308574285</v>
+        <v>2.5306398400000001</v>
       </c>
       <c r="P28" s="7">
-        <v>2.4144388311720002</v>
+        <v>2.4018198100000001</v>
       </c>
       <c r="Q28" s="7">
-        <v>2.6355523563349998</v>
+        <v>2.7401594399999998</v>
       </c>
       <c r="R28" s="7">
-        <v>2.5924848995950001</v>
+        <v>2.6115367900000002</v>
       </c>
       <c r="S28" s="7">
-        <v>2.2839175118730002</v>
+        <v>2.1841070899999999</v>
       </c>
       <c r="T28" s="7">
-        <v>2.6470556106590002</v>
-      </c>
-      <c r="U28" s="8">
-        <v>2.4800662643189999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.45">
+        <v>2.6329119599999999</v>
+      </c>
+      <c r="U28" s="7">
+        <v>2.5896745999999999</v>
+      </c>
+      <c r="V28" s="8">
+        <v>2.6682313999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="28">
         <v>2.0778713299999998</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="28">
         <v>3.5439068643409999</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="28">
         <v>3.9829591600000001</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="28">
         <v>3.2654603999999998</v>
       </c>
-      <c r="G29" s="13">
-        <v>3.5109842876099999</v>
-      </c>
-      <c r="H29" s="13">
-        <v>2.956588154541</v>
-      </c>
-      <c r="I29" s="13">
-        <v>3.5875676776469998</v>
-      </c>
-      <c r="J29" s="13">
-        <v>3.3758342764279998</v>
-      </c>
-      <c r="K29" s="13">
-        <v>3.4583988561260002</v>
-      </c>
-      <c r="L29" s="13">
-        <v>3.3530906140060002</v>
-      </c>
-      <c r="M29" s="13">
-        <v>2.8737594153230002</v>
-      </c>
-      <c r="N29" s="13">
-        <v>2.7000750507719999</v>
-      </c>
-      <c r="O29" s="13">
-        <v>2.4164313696350002</v>
-      </c>
-      <c r="P29" s="13">
-        <v>2.8592244658429999</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>2.6026243059469998</v>
-      </c>
-      <c r="R29" s="13">
-        <v>3.0448442633099999</v>
-      </c>
-      <c r="S29" s="13">
-        <v>2.8448505689610002</v>
-      </c>
-      <c r="T29" s="13">
-        <v>2.6765155412719999</v>
-      </c>
-      <c r="U29" s="14">
-        <v>3.1094760127179999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G29" s="28">
+        <v>3.0867</v>
+      </c>
+      <c r="H29" s="28">
+        <v>2.9163000000000001</v>
+      </c>
+      <c r="I29" s="28">
+        <v>4.1970000000000001</v>
+      </c>
+      <c r="J29" s="28">
+        <v>3.3240790900000001</v>
+      </c>
+      <c r="K29" s="28">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="L29" s="28">
+        <v>3.3013534600000001</v>
+      </c>
+      <c r="M29" s="28">
+        <v>3.3777061900000001</v>
+      </c>
+      <c r="N29" s="28">
+        <v>2.7125106099999998</v>
+      </c>
+      <c r="O29" s="28">
+        <v>2.0048189700000001</v>
+      </c>
+      <c r="P29" s="28">
+        <v>2.8122661099999999</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>3.0663989100000002</v>
+      </c>
+      <c r="R29" s="28">
+        <v>3.11087274</v>
+      </c>
+      <c r="S29" s="28">
+        <v>2.3051548999999998</v>
+      </c>
+      <c r="T29" s="28">
+        <v>2.64475039</v>
+      </c>
+      <c r="U29" s="28">
+        <v>3.6596301499999999</v>
+      </c>
+      <c r="V29" s="13">
+        <v>3.1512297600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -2511,114 +2671,120 @@
         <v>2.42904974</v>
       </c>
       <c r="G30" s="7">
-        <v>2.6204978103409999</v>
+        <v>2.4647000000000001</v>
       </c>
       <c r="H30" s="7">
-        <v>2.6243483062049999</v>
+        <v>2.5695000000000001</v>
       </c>
       <c r="I30" s="7">
-        <v>2.5958610493899998</v>
+        <v>2.9333</v>
       </c>
       <c r="J30" s="7">
-        <v>2.8662928298920001</v>
+        <v>2.7409517700000001</v>
       </c>
       <c r="K30" s="7">
-        <v>2.8546378393020002</v>
+        <v>2.6595</v>
       </c>
       <c r="L30" s="7">
-        <v>3.0060425835859999</v>
+        <v>2.9448655700000002</v>
       </c>
       <c r="M30" s="7">
-        <v>2.9437249788709998</v>
+        <v>3.3301134399999999</v>
       </c>
       <c r="N30" s="7">
-        <v>2.8934521967450002</v>
+        <v>2.78627805</v>
       </c>
       <c r="O30" s="7">
-        <v>2.1761031058209999</v>
+        <v>2.0087007300000002</v>
       </c>
       <c r="P30" s="7">
-        <v>2.2713704267289998</v>
+        <v>2.22653488</v>
       </c>
       <c r="Q30" s="7">
-        <v>2.655549651411</v>
+        <v>3.0103225</v>
       </c>
       <c r="R30" s="7">
-        <v>2.352192501067</v>
+        <v>2.2773165999999998</v>
       </c>
       <c r="S30" s="7">
-        <v>2.0352577923789998</v>
+        <v>1.85963645</v>
       </c>
       <c r="T30" s="7">
-        <v>2.44941198811</v>
-      </c>
-      <c r="U30" s="8">
-        <v>2.4385061262450001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.45">
+        <v>2.4113883999999999</v>
+      </c>
+      <c r="U30" s="7">
+        <v>2.7632809900000002</v>
+      </c>
+      <c r="V30" s="8">
+        <v>2.1046478199999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="28">
         <v>4.3705438000000001</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="28">
         <v>5.372948325976</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="28">
         <v>6.6877965100000001</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="28">
         <v>4.9442936800000004</v>
       </c>
-      <c r="G31" s="13">
-        <v>4.8401563425659999</v>
-      </c>
-      <c r="H31" s="13">
-        <v>2.9093339531510001</v>
-      </c>
-      <c r="I31" s="13">
-        <v>3.9272409928449998</v>
-      </c>
-      <c r="J31" s="13">
-        <v>3.699392077413</v>
-      </c>
-      <c r="K31" s="13">
-        <v>3.155910379352</v>
-      </c>
-      <c r="L31" s="13">
-        <v>3.028540183444</v>
-      </c>
-      <c r="M31" s="13">
-        <v>3.4596878368140001</v>
-      </c>
-      <c r="N31" s="13">
-        <v>2.5780820359110002</v>
-      </c>
-      <c r="O31" s="13">
-        <v>3.2143936751309998</v>
-      </c>
-      <c r="P31" s="13">
-        <v>2.5386972837189998</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>2.672467610849</v>
-      </c>
-      <c r="R31" s="13">
-        <v>2.839084651456</v>
-      </c>
-      <c r="S31" s="13">
-        <v>2.954352852525</v>
-      </c>
-      <c r="T31" s="13">
-        <v>3.5453831281629999</v>
-      </c>
-      <c r="U31" s="14">
-        <v>3.2450880559440001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="G31" s="28">
+        <v>4.4452999999999996</v>
+      </c>
+      <c r="H31" s="28">
+        <v>2.9325000000000001</v>
+      </c>
+      <c r="I31" s="28">
+        <v>4.3503999999999996</v>
+      </c>
+      <c r="J31" s="28">
+        <v>3.60542512</v>
+      </c>
+      <c r="K31" s="28">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="L31" s="28">
+        <v>3.0669195299999998</v>
+      </c>
+      <c r="M31" s="28">
+        <v>3.8153369100000001</v>
+      </c>
+      <c r="N31" s="28">
+        <v>2.5478531000000002</v>
+      </c>
+      <c r="O31" s="28">
+        <v>2.8623255900000002</v>
+      </c>
+      <c r="P31" s="28">
+        <v>2.5887040799999999</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>2.93751345</v>
+      </c>
+      <c r="R31" s="28">
+        <v>2.8216404399999999</v>
+      </c>
+      <c r="S31" s="28">
+        <v>2.6154821099999999</v>
+      </c>
+      <c r="T31" s="28">
+        <v>3.6200527199999999</v>
+      </c>
+      <c r="U31" s="28">
+        <v>3.5718570500000002</v>
+      </c>
+      <c r="V31" s="13">
+        <v>2.9038677700000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2635,114 +2801,120 @@
         <v>7.9606255700000004</v>
       </c>
       <c r="G32" s="7">
-        <v>6.3621310981020001</v>
+        <v>6.0159000000000002</v>
       </c>
       <c r="H32" s="7">
-        <v>5.7934845304260003</v>
+        <v>5.8532999999999999</v>
       </c>
       <c r="I32" s="7">
-        <v>6.0397952948310003</v>
+        <v>6.3132999999999999</v>
       </c>
       <c r="J32" s="7">
-        <v>5.1000341596199998</v>
+        <v>5.1021992100000002</v>
       </c>
       <c r="K32" s="7">
-        <v>5.1724173040509998</v>
+        <v>4.7906000000000004</v>
       </c>
       <c r="L32" s="7">
-        <v>5.5563022398359996</v>
+        <v>5.6737154700000003</v>
       </c>
       <c r="M32" s="7">
-        <v>4.9454886341349997</v>
+        <v>5.2553574999999997</v>
       </c>
       <c r="N32" s="7">
-        <v>4.2546583009120003</v>
+        <v>4.1814184699999997</v>
       </c>
       <c r="O32" s="7">
-        <v>4.2049717093170003</v>
+        <v>3.8290695600000002</v>
       </c>
       <c r="P32" s="7">
-        <v>3.8996363628739998</v>
+        <v>4.0539333099999997</v>
       </c>
       <c r="Q32" s="7">
-        <v>3.662064935863</v>
+        <v>3.98275201</v>
       </c>
       <c r="R32" s="7">
-        <v>3.9749574405989998</v>
+        <v>3.8484610199999998</v>
       </c>
       <c r="S32" s="7">
-        <v>3.7667290910350002</v>
+        <v>3.4193521800000002</v>
       </c>
       <c r="T32" s="7">
-        <v>3.8587018947759999</v>
-      </c>
-      <c r="U32" s="8">
-        <v>4.1002564482599997</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
+        <v>4.0180364800000001</v>
+      </c>
+      <c r="U32" s="7">
+        <v>4.4279886499999996</v>
+      </c>
+      <c r="V32" s="8">
+        <v>4.1384578100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="28">
         <v>3.1892369399999998</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="28">
         <v>4.4766470929609996</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="28">
         <v>3.7868061700000002</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="28">
         <v>3.29395449</v>
       </c>
-      <c r="G33" s="13">
-        <v>3.9251444803840001</v>
-      </c>
-      <c r="H33" s="13">
-        <v>3.0563243372339999</v>
-      </c>
-      <c r="I33" s="13">
-        <v>3.4446991301250001</v>
-      </c>
-      <c r="J33" s="13">
-        <v>3.617875243137</v>
-      </c>
-      <c r="K33" s="13">
-        <v>3.8889034139000001</v>
-      </c>
-      <c r="L33" s="13">
-        <v>3.4578645292319998</v>
-      </c>
-      <c r="M33" s="13">
-        <v>3.4445871181180001</v>
-      </c>
-      <c r="N33" s="13">
-        <v>3.1777709387200002</v>
-      </c>
-      <c r="O33" s="13">
-        <v>2.8655562652789999</v>
-      </c>
-      <c r="P33" s="13">
-        <v>3.1775394369029999</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>3.1309772681729999</v>
-      </c>
-      <c r="R33" s="13">
-        <v>3.3117419262080001</v>
-      </c>
-      <c r="S33" s="13">
-        <v>3.2096467693420001</v>
-      </c>
-      <c r="T33" s="13">
-        <v>3.4371438263499998</v>
-      </c>
-      <c r="U33" s="14">
-        <v>3.1631888231450001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="G33" s="28">
+        <v>3.8391000000000002</v>
+      </c>
+      <c r="H33" s="28">
+        <v>2.9788000000000001</v>
+      </c>
+      <c r="I33" s="28">
+        <v>3.6738</v>
+      </c>
+      <c r="J33" s="28">
+        <v>3.5517481200000001</v>
+      </c>
+      <c r="K33" s="28">
+        <v>3.7774000000000001</v>
+      </c>
+      <c r="L33" s="28">
+        <v>3.4025774700000002</v>
+      </c>
+      <c r="M33" s="28">
+        <v>3.66340975</v>
+      </c>
+      <c r="N33" s="28">
+        <v>3.1207157900000002</v>
+      </c>
+      <c r="O33" s="28">
+        <v>2.76848363</v>
+      </c>
+      <c r="P33" s="28">
+        <v>3.1517385600000001</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>3.31719673</v>
+      </c>
+      <c r="R33" s="28">
+        <v>3.25942614</v>
+      </c>
+      <c r="S33" s="28">
+        <v>3.0852135999999999</v>
+      </c>
+      <c r="T33" s="28">
+        <v>3.4300383700000001</v>
+      </c>
+      <c r="U33" s="28">
+        <v>3.3399522199999998</v>
+      </c>
+      <c r="V33" s="13">
+        <v>3.0147922399999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -2759,114 +2931,120 @@
         <v>5.5810141900000003</v>
       </c>
       <c r="G34" s="7">
-        <v>5.7072364488709999</v>
+        <v>5.8606999999999996</v>
       </c>
       <c r="H34" s="7">
-        <v>5.3006941070289999</v>
+        <v>5.0761000000000003</v>
       </c>
       <c r="I34" s="7">
-        <v>5.1966065750919999</v>
+        <v>5.4886999999999997</v>
       </c>
       <c r="J34" s="7">
-        <v>4.6135706032549999</v>
+        <v>4.4230883499999996</v>
       </c>
       <c r="K34" s="7">
-        <v>4.2868940068079997</v>
+        <v>4.3861999999999997</v>
       </c>
       <c r="L34" s="7">
-        <v>4.015067166893</v>
+        <v>3.8487871199999999</v>
       </c>
       <c r="M34" s="7">
-        <v>3.5403788365379998</v>
+        <v>3.77758131</v>
       </c>
       <c r="N34" s="7">
-        <v>3.5025472791409999</v>
+        <v>3.3307172</v>
       </c>
       <c r="O34" s="7">
-        <v>3.181811803589</v>
+        <v>3.2464448799999999</v>
       </c>
       <c r="P34" s="7">
-        <v>3.5532049101109999</v>
+        <v>3.4058653799999998</v>
       </c>
       <c r="Q34" s="7">
-        <v>3.4290057666620002</v>
+        <v>3.6840713100000002</v>
       </c>
       <c r="R34" s="7">
-        <v>3.1643459296069998</v>
+        <v>3.0042289900000001</v>
       </c>
       <c r="S34" s="7">
-        <v>3.1052458576699999</v>
+        <v>3.1498021399999998</v>
       </c>
       <c r="T34" s="7">
-        <v>2.5517863398279998</v>
-      </c>
-      <c r="U34" s="8">
-        <v>3.3511335059879999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>2.4487593599999999</v>
+      </c>
+      <c r="U34" s="7">
+        <v>3.6146276099999999</v>
+      </c>
+      <c r="V34" s="8">
+        <v>2.56064084</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="28">
         <v>2.6843662699999999</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="28">
         <v>5.6061506395559997</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="28">
         <v>2.75095745</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="28">
         <v>3.3643901899999999</v>
       </c>
-      <c r="G35" s="13">
-        <v>2.866181789024</v>
-      </c>
-      <c r="H35" s="13">
-        <v>4.0352866714940001</v>
-      </c>
-      <c r="I35" s="13">
-        <v>3.2200200896269999</v>
-      </c>
-      <c r="J35" s="13">
-        <v>3.3287330905700001</v>
-      </c>
-      <c r="K35" s="13">
-        <v>2.8825578844159998</v>
-      </c>
-      <c r="L35" s="13">
-        <v>2.7974695496990001</v>
-      </c>
-      <c r="M35" s="13">
-        <v>2.8830788602820001</v>
-      </c>
-      <c r="N35" s="13">
-        <v>2.3726495523239999</v>
-      </c>
-      <c r="O35" s="13">
-        <v>2.6918794460400002</v>
-      </c>
-      <c r="P35" s="13">
-        <v>2.05596218752</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>1.838871394279</v>
-      </c>
-      <c r="R35" s="13">
-        <v>1.9343647435489999</v>
-      </c>
-      <c r="S35" s="13">
-        <v>1.8249950869239999</v>
-      </c>
-      <c r="T35" s="13">
-        <v>1.9616815159159999</v>
-      </c>
-      <c r="U35" s="14">
-        <v>2.2297285248329999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="G35" s="28">
+        <v>2.5878000000000001</v>
+      </c>
+      <c r="H35" s="28">
+        <v>4.2138</v>
+      </c>
+      <c r="I35" s="28">
+        <v>3.4125999999999999</v>
+      </c>
+      <c r="J35" s="28">
+        <v>3.3017253599999998</v>
+      </c>
+      <c r="K35" s="28">
+        <v>2.5969000000000002</v>
+      </c>
+      <c r="L35" s="28">
+        <v>2.9266840200000002</v>
+      </c>
+      <c r="M35" s="28">
+        <v>3.0652180800000002</v>
+      </c>
+      <c r="N35" s="28">
+        <v>2.35307362</v>
+      </c>
+      <c r="O35" s="28">
+        <v>2.4165561900000001</v>
+      </c>
+      <c r="P35" s="28">
+        <v>2.1384338700000001</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>1.9840478500000001</v>
+      </c>
+      <c r="R35" s="28">
+        <v>1.8953752399999999</v>
+      </c>
+      <c r="S35" s="28">
+        <v>1.65543156</v>
+      </c>
+      <c r="T35" s="28">
+        <v>2.0118811999999999</v>
+      </c>
+      <c r="U35" s="28">
+        <v>2.44104017</v>
+      </c>
+      <c r="V35" s="13">
+        <v>2.29542694</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
@@ -2883,210 +3061,219 @@
         <v>2.6747215899999999</v>
       </c>
       <c r="G36" s="7">
-        <v>2.8356916874890001</v>
+        <v>2.9782999999999999</v>
       </c>
       <c r="H36" s="7">
-        <v>2.7143711198739999</v>
+        <v>2.516</v>
       </c>
       <c r="I36" s="7">
-        <v>2.2223230086210002</v>
+        <v>2.3544999999999998</v>
       </c>
       <c r="J36" s="7">
-        <v>2.1165104031989999</v>
+        <v>2.06799109</v>
       </c>
       <c r="K36" s="7">
-        <v>2.1268360079819999</v>
+        <v>2.1964999999999999</v>
       </c>
       <c r="L36" s="7">
-        <v>1.7909531256060001</v>
+        <v>1.65477027</v>
       </c>
       <c r="M36" s="7">
-        <v>1.924656047144</v>
+        <v>2.0484404000000001</v>
       </c>
       <c r="N36" s="7">
-        <v>2.0045687811509998</v>
+        <v>1.9883297200000001</v>
       </c>
       <c r="O36" s="7">
-        <v>1.916452259328</v>
+        <v>1.94652877</v>
       </c>
       <c r="P36" s="7">
-        <v>1.7176767215119999</v>
+        <v>1.5768129200000001</v>
       </c>
       <c r="Q36" s="7">
-        <v>1.94227488259</v>
+        <v>2.0937268800000002</v>
       </c>
       <c r="R36" s="7">
-        <v>1.780888309057</v>
+        <v>1.77690255</v>
       </c>
       <c r="S36" s="7">
-        <v>1.6336158773410001</v>
+        <v>1.63492864</v>
       </c>
       <c r="T36" s="7">
-        <v>1.913620364254</v>
-      </c>
-      <c r="U36" s="8">
-        <v>1.9024322570229999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
+        <v>1.7534417600000001</v>
+      </c>
+      <c r="U36" s="7">
+        <v>2.0699258</v>
+      </c>
+      <c r="V36" s="8">
+        <v>1.56092505</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="33">
         <v>3.3246891199999999</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="33">
         <v>4.5902187027619998</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="33">
         <v>3.8974136599999998</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="33">
         <v>4.1611725100000001</v>
       </c>
-      <c r="G37" s="13">
-        <v>3.7076336296419998</v>
-      </c>
-      <c r="H37" s="13">
-        <v>3.443136175727</v>
-      </c>
-      <c r="I37" s="13">
-        <v>3.7725986719660001</v>
-      </c>
-      <c r="J37" s="13">
-        <v>3.0869433107409998</v>
-      </c>
-      <c r="K37" s="13">
-        <v>2.6233397997819998</v>
-      </c>
-      <c r="L37" s="13">
-        <v>3.1039203751420001</v>
-      </c>
-      <c r="M37" s="13">
-        <v>2.788177705416</v>
-      </c>
-      <c r="N37" s="13">
-        <v>2.6670121045489998</v>
-      </c>
-      <c r="O37" s="13">
-        <v>3.217756374061</v>
-      </c>
-      <c r="P37" s="13">
-        <v>2.7187887845819998</v>
-      </c>
-      <c r="Q37" s="13">
-        <v>2.43538141268</v>
-      </c>
-      <c r="R37" s="13">
-        <v>3.1207085199220002</v>
-      </c>
-      <c r="S37" s="13">
-        <v>2.5586097931439999</v>
-      </c>
-      <c r="T37" s="13">
-        <v>2.6523798074989999</v>
-      </c>
-      <c r="U37" s="14">
-        <v>2.6444266513270001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B38" s="20" t="s">
+      <c r="G37" s="33">
+        <v>3.8961000000000001</v>
+      </c>
+      <c r="H37" s="33">
+        <v>3.5958999999999999</v>
+      </c>
+      <c r="I37" s="33">
+        <v>3.7721</v>
+      </c>
+      <c r="J37" s="33">
+        <v>2.7536017500000001</v>
+      </c>
+      <c r="K37" s="33">
+        <v>2.7875999999999999</v>
+      </c>
+      <c r="L37" s="33">
+        <v>3.2980424699999999</v>
+      </c>
+      <c r="M37" s="33">
+        <v>2.74256441</v>
+      </c>
+      <c r="N37" s="33">
+        <v>2.3599748699999998</v>
+      </c>
+      <c r="O37" s="33">
+        <v>3.3692865599999999</v>
+      </c>
+      <c r="P37" s="33">
+        <v>2.93788917</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>2.3583399300000001</v>
+      </c>
+      <c r="R37" s="33">
+        <v>2.8225105899999998</v>
+      </c>
+      <c r="S37" s="33">
+        <v>2.7216196799999999</v>
+      </c>
+      <c r="T37" s="33">
+        <v>2.87226252</v>
+      </c>
+      <c r="U37" s="33">
+        <v>2.5525901100000001</v>
+      </c>
+      <c r="V37" s="34">
+        <v>2.6885930899999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B38" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="36">
         <v>2.9</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="36">
         <v>5.5</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="36">
         <v>3.8</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="36">
         <v>3.9</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="36">
         <v>4</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="36">
         <v>4.2</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="36">
         <v>3.5</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="36">
         <v>3</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="36">
         <v>3.3</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="36">
         <v>3.3</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="36">
         <v>2.8</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="36">
         <v>2.4</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="36">
         <v>2.6520329203049999</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="36">
         <v>2.8774210909739999</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="36">
         <v>2.613759785893</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T38" s="36">
         <v>2.8</v>
       </c>
-      <c r="U38" s="19">
+      <c r="U38" s="36">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="22" t="s">
+      <c r="V38" s="37">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B40" s="22" t="s">
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="S41" s="23"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="S42" s="23"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="S41" s="19"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="S42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AH25:AJ25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5AA42-1A0D-464A-B037-8610C1BACC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0CC8F-25C4-40FD-9184-5D1F55BE92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -215,7 +215,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +490,23 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -505,9 +522,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -517,20 +531,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -778,7 +778,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
@@ -804,7 +804,7 @@
     <col min="37" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:26">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -815,7 +815,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="18">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -851,52 +851,52 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:26">
+      <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="33">
         <v>2020</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33">
         <v>2021</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26">
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33">
         <v>2022</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33">
         <v>2023</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="29">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="35">
         <v>2024</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
-      <c r="X4" s="27" t="s">
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
+      <c r="X4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z4" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="25"/>
+    <row r="5" spans="2:26" ht="24" customHeight="1">
+      <c r="B5" s="32"/>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
@@ -957,11 +957,11 @@
       <c r="V5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-    </row>
-    <row r="6" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="2:26" s="9" customFormat="1">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1025,91 +1025,91 @@
       <c r="V6" s="8">
         <v>2.26459755</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="14">
         <v>2025</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>2.5114197458550001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="23">
         <v>2.1679783399999999</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="23">
         <v>3.7235528235030002</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="23">
         <v>2.7481679699999999</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="23">
         <v>2.8800737700000001</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="23">
         <v>2.5548000000000002</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>2.4466999999999999</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="23">
         <v>2.8795000000000002</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="23">
         <v>2.0435054799999999</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <v>1.9105000000000001</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="23">
         <v>2.50983702</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="23">
         <v>2.5925436199999998</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="23">
         <v>2.7022449599999998</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="23">
         <v>1.7122155299999999</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="23">
         <v>2.3074277599999999</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="23">
         <v>2.4388878200000002</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="23">
         <v>2.24539394</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="23">
         <v>2.12566465</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="23">
         <v>2.7377111599999999</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="23">
         <v>2.7233209299999999</v>
       </c>
       <c r="V7" s="13">
         <v>2.4591017100000001</v>
       </c>
-      <c r="X7" s="14">
-        <v>2024</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="X7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1173,91 +1173,91 @@
       <c r="V8" s="8">
         <v>1.8888809900000001</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="14">
         <v>2024</v>
       </c>
-      <c r="Y8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="23">
         <v>2.7825349500000001</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="23">
         <v>4.727600453</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <v>3.8260798</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <v>3.3896922300000001</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="23">
         <v>2.9264000000000001</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="23">
         <v>2.8953000000000002</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="23">
         <v>3.0569999999999999</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="23">
         <v>2.9558035199999999</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="23">
         <v>3.0680999999999998</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="23">
         <v>2.95330073</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <v>2.2977208999999998</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="23">
         <v>1.97640992</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="23">
         <v>1.7623953999999999</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="23">
         <v>1.7590476799999999</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="23">
         <v>1.81924446</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="23">
         <v>1.7151124</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="23">
         <v>1.56255849</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="23">
         <v>1.9977889</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="23">
         <v>1.9509284</v>
       </c>
       <c r="V9" s="13">
         <v>1.8974239500000001</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="10">
         <v>2024</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1321,91 +1321,91 @@
       <c r="V10" s="8">
         <v>3.50216284</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="14">
         <v>2024</v>
       </c>
-      <c r="Y10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <v>3.1287217100000002</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>5.6749883899600002</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="23">
         <v>4.1445264799999997</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <v>3.8091646199999998</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="23">
         <v>3.2056</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <v>3.1979000000000002</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="23">
         <v>2.9165000000000001</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="23">
         <v>3.12393499</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="23">
         <v>2.7711999999999999</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="23">
         <v>2.56226011</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="23">
         <v>2.6098454000000002</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="23">
         <v>2.3576337000000001</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="23">
         <v>2.1347757700000001</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="23">
         <v>2.2065504499999999</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="23">
         <v>2.5596532600000002</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="23">
         <v>2.3033615099999998</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="23">
         <v>2.10576973</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="23">
         <v>2.1113554699999999</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="23">
         <v>2.3396167499999998</v>
       </c>
       <c r="V11" s="13">
         <v>2.2341665100000001</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="10">
         <v>2024</v>
       </c>
-      <c r="Y11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>3.0373716149260002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1469,91 +1469,91 @@
       <c r="V12" s="8">
         <v>2.7596628999999999</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="14">
         <v>2024</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>3.0373716149260002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <v>3.4911393300000002</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>3.0033722905200002</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="23">
         <v>4.6977971600000004</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <v>3.7350676799999998</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="23">
         <v>3.9754999999999998</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <v>3.6124000000000001</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="23">
         <v>3.0286</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="23">
         <v>2.8667256700000001</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="23">
         <v>2.5998000000000001</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="23">
         <v>2.4555326800000001</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="23">
         <v>2.4653640399999999</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="23">
         <v>1.9890553399999999</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="23">
         <v>2.7844147700000001</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="23">
         <v>2.4785179099999999</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="23">
         <v>2.81497544</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="23">
         <v>1.92982532</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="23">
         <v>2.2383546399999998</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="23">
         <v>2.5346683200000002</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="23">
         <v>2.62463011</v>
       </c>
       <c r="V13" s="13">
         <v>2.1212565400000001</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="10">
         <v>2024</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1617,91 +1617,91 @@
       <c r="V14" s="8">
         <v>3.9891847999999999</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="14">
         <v>2024</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="Y14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="23">
         <v>4.0551161799999997</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="23">
         <v>4.5290169577550001</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="23">
         <v>4.8087303199999996</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="23">
         <v>4.8768457500000002</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="23">
         <v>4.1498999999999997</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <v>4.5946999999999996</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>4.2107999999999999</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="23">
         <v>3.4306759699999998</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="23">
         <v>3.5752000000000002</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="23">
         <v>3.2651400499999998</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="23">
         <v>3.25674844</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="23">
         <v>3.0871965700000001</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="23">
         <v>2.9873726999999999</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="23">
         <v>2.8720078299999998</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="23">
         <v>3.0968583000000001</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="23">
         <v>2.8204127899999998</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="23">
         <v>3.0459431000000001</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="23">
         <v>2.81245681</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="23">
         <v>3.29465232</v>
       </c>
       <c r="V15" s="13">
         <v>3.0620892099999999</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="10">
         <v>2024</v>
       </c>
-      <c r="Y15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" s="21">
+      <c r="Y15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="20">
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1765,91 +1765,91 @@
       <c r="V16" s="8">
         <v>2.2986714699999999</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="14">
         <v>2024</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="Y16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36">
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <v>1.5839889300000001</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="23">
         <v>3.8087971061510002</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="23">
         <v>3.2862965900000001</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="23">
         <v>2.4047662999999999</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="23">
         <v>1.6917</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="23">
         <v>1.5095000000000001</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="23">
         <v>1.5939000000000001</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="23">
         <v>1.41565041</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="23">
         <v>1.6037999999999999</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="23">
         <v>1.4893519</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="23">
         <v>1.7187504</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="23">
         <v>0.80639112000000002</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="23">
         <v>1.7971872799999999</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="23">
         <v>0.94909533000000001</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="23">
         <v>1.1498171100000001</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="23">
         <v>0.76678526999999996</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="23">
         <v>1.16993693</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="23">
         <v>1.0426476600000001</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="23">
         <v>1.3171719200000001</v>
       </c>
       <c r="V17" s="13">
         <v>1.2922969799999999</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="10">
         <v>2024</v>
       </c>
-      <c r="Y17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="Y17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1913,82 +1913,91 @@
       <c r="V18" s="8">
         <v>1.8124401999999999</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="14">
         <v>2024</v>
       </c>
-      <c r="Y18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z18" s="22">
-        <v>2.8530240195499998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="Y18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36">
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="23">
         <v>2.9374560000000001</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="23">
         <v>4.1598062785690004</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="23">
         <v>5.0007939300000004</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="23">
         <v>4.0561315899999997</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="23">
         <v>3.7193999999999998</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="23">
         <v>3.3462999999999998</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="23">
         <v>3.3864000000000001</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="23">
         <v>3.0996845999999998</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="23">
         <v>2.3620000000000001</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="23">
         <v>2.3443243100000002</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="23">
         <v>2.8146510400000002</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="23">
         <v>2.36227638</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="23">
         <v>2.1535748199999998</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="23">
         <v>2.4555377200000001</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="23">
         <v>2.96040795</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="23">
         <v>2.2022065500000001</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="23">
         <v>1.42080725</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="23">
         <v>2.2026988300000001</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="23">
         <v>2.6267762800000001</v>
       </c>
       <c r="V19" s="13">
         <v>2.1288924599999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="X19" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z19" s="22">
+        <v>2.8530240195499998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2052,69 +2061,66 @@
       <c r="V20" s="8">
         <v>2.9006819199999998</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="2:36" ht="15" customHeight="1">
       <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="23">
         <v>2.34419829</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="23">
         <v>3.6889590710990001</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="23">
         <v>2.5568296699999999</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="23">
         <v>2.2915890600000002</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="23">
         <v>2.5427</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="23">
         <v>1.9844999999999999</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="23">
         <v>2.1976</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="23">
         <v>2.54179617</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="23">
         <v>1.6212</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="23">
         <v>1.72564356</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="23">
         <v>1.8510605</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="23">
         <v>1.6685074600000001</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="23">
         <v>1.6612297199999999</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="23">
         <v>1.9952102300000001</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="23">
         <v>1.9652243899999999</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="23">
         <v>2.0918819599999998</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="23">
         <v>1.71727023</v>
       </c>
-      <c r="T21" s="28">
+      <c r="T21" s="23">
         <v>1.72129256</v>
       </c>
-      <c r="U21" s="28">
+      <c r="U21" s="23">
         <v>2.2302379999999999</v>
       </c>
       <c r="V21" s="13">
@@ -2124,7 +2130,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2188,73 +2194,76 @@
       <c r="V22" s="8">
         <v>2.1240311300000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" spans="2:36">
       <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="23">
         <v>3.7112764399999998</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="23">
         <v>5.8885601693850003</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="23">
         <v>5.2159162300000004</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="23">
         <v>4.0388354399999997</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="23">
         <v>2.6522999999999999</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="23">
         <v>2.8048000000000002</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="23">
         <v>3.3843000000000001</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="23">
         <v>2.6101628799999999</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="23">
         <v>2.9603000000000002</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="23">
         <v>2.46998995</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="23">
         <v>2.7579627499999999</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="23">
         <v>2.38037886</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="23">
         <v>1.9010526400000001</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="23">
         <v>2.1495151699999999</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="23">
         <v>2.3065688400000002</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="23">
         <v>2.0540566999999998</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="23">
         <v>1.97023477</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="23">
         <v>2.1533645899999998</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="23">
         <v>2.7178060300000002</v>
       </c>
       <c r="V23" s="13">
         <v>2.00958266</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2318,83 +2327,83 @@
       <c r="V24" s="8">
         <v>2.6077993899999998</v>
       </c>
-      <c r="AH24" s="23" t="s">
+      <c r="AH24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+    </row>
+    <row r="25" spans="2:36">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="23">
         <v>1.7074406200000001</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="23">
         <v>3.6823497055669998</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="23">
         <v>3.0591167600000002</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="23">
         <v>1.69948196</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="23">
         <v>1.5342</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="23">
         <v>1.6093</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="23">
         <v>1.7496</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="23">
         <v>1.51448805</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="23">
         <v>1.5727</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="23">
         <v>1.4444677399999999</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="23">
         <v>1.4069400400000001</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="23">
         <v>1.28337521</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="23">
         <v>1.3527094900000001</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="23">
         <v>1.22087151</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="23">
         <v>1.93502967</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="23">
         <v>1.5406963</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="23">
         <v>1.42194562</v>
       </c>
-      <c r="T25" s="28">
+      <c r="T25" s="23">
         <v>1.1995928199999999</v>
       </c>
-      <c r="U25" s="28">
+      <c r="U25" s="23">
         <v>1.04523283</v>
       </c>
       <c r="V25" s="13">
         <v>1.8734331399999999</v>
       </c>
-      <c r="AH25" s="23" t="s">
+      <c r="AH25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+    </row>
+    <row r="26" spans="2:36">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2459,72 +2468,72 @@
         <v>2.2252721599999998</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36">
       <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="23">
         <v>3.49575513</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="23">
         <v>6.048082627875</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="23">
         <v>8.2183487599999996</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="23">
         <v>6.9100863700000001</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="23">
         <v>4.9446000000000003</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="23">
         <v>5.7641</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="23">
         <v>5.4067999999999996</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="23">
         <v>5.7490794699999999</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="23">
         <v>3.6242000000000001</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="23">
         <v>4.2847028600000003</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="23">
         <v>3.8193268800000002</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="23">
         <v>3.6262164700000001</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="23">
         <v>2.4838113100000001</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="23">
         <v>3.2731736900000001</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="23">
         <v>2.9151031500000002</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="23">
         <v>2.90736704</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="23">
         <v>2.6459130800000001</v>
       </c>
-      <c r="T27" s="28">
+      <c r="T27" s="23">
         <v>2.74864905</v>
       </c>
-      <c r="U27" s="28">
+      <c r="U27" s="23">
         <v>2.3946212600000001</v>
       </c>
       <c r="V27" s="13">
         <v>2.0692731800000002</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:36">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -2589,72 +2598,72 @@
         <v>2.6682313999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:36">
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="23">
         <v>2.0778713299999998</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="23">
         <v>3.5439068643409999</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="23">
         <v>3.9829591600000001</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="23">
         <v>3.2654603999999998</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="23">
         <v>3.0867</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="23">
         <v>2.9163000000000001</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="23">
         <v>4.1970000000000001</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="23">
         <v>3.3240790900000001</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="23">
         <v>2.9449999999999998</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="23">
         <v>3.3013534600000001</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="23">
         <v>3.3777061900000001</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="23">
         <v>2.7125106099999998</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="23">
         <v>2.0048189700000001</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="23">
         <v>2.8122661099999999</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="23">
         <v>3.0663989100000002</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="23">
         <v>3.11087274</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="23">
         <v>2.3051548999999998</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="23">
         <v>2.64475039</v>
       </c>
-      <c r="U29" s="28">
+      <c r="U29" s="23">
         <v>3.6596301499999999</v>
       </c>
       <c r="V29" s="13">
         <v>3.1512297600000001</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:36">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -2719,72 +2728,72 @@
         <v>2.1046478199999998</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36">
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="23">
         <v>4.3705438000000001</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="23">
         <v>5.372948325976</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="23">
         <v>6.6877965100000001</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="23">
         <v>4.9442936800000004</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="23">
         <v>4.4452999999999996</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="23">
         <v>2.9325000000000001</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="23">
         <v>4.3503999999999996</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="23">
         <v>3.60542512</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="23">
         <v>2.8570000000000002</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="23">
         <v>3.0669195299999998</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="23">
         <v>3.8153369100000001</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="23">
         <v>2.5478531000000002</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="23">
         <v>2.8623255900000002</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="23">
         <v>2.5887040799999999</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="23">
         <v>2.93751345</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="23">
         <v>2.8216404399999999</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="23">
         <v>2.6154821099999999</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="23">
         <v>3.6200527199999999</v>
       </c>
-      <c r="U31" s="28">
+      <c r="U31" s="23">
         <v>3.5718570500000002</v>
       </c>
       <c r="V31" s="13">
         <v>2.9038677700000002</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:36">
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2849,72 +2858,72 @@
         <v>4.1384578100000002</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:26">
       <c r="B33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="23">
         <v>3.1892369399999998</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="23">
         <v>4.4766470929609996</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="23">
         <v>3.7868061700000002</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="23">
         <v>3.29395449</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="23">
         <v>3.8391000000000002</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="23">
         <v>2.9788000000000001</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="23">
         <v>3.6738</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="23">
         <v>3.5517481200000001</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="23">
         <v>3.7774000000000001</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="23">
         <v>3.4025774700000002</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="23">
         <v>3.66340975</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="23">
         <v>3.1207157900000002</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="23">
         <v>2.76848363</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="23">
         <v>3.1517385600000001</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="23">
         <v>3.31719673</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="23">
         <v>3.25942614</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="23">
         <v>3.0852135999999999</v>
       </c>
-      <c r="T33" s="28">
+      <c r="T33" s="23">
         <v>3.4300383700000001</v>
       </c>
-      <c r="U33" s="28">
+      <c r="U33" s="23">
         <v>3.3399522199999998</v>
       </c>
       <c r="V33" s="13">
         <v>3.0147922399999998</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:26">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -2979,72 +2988,72 @@
         <v>2.56064084</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:26" ht="15" customHeight="1">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="23">
         <v>2.6843662699999999</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="23">
         <v>5.6061506395559997</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="23">
         <v>2.75095745</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="23">
         <v>3.3643901899999999</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="23">
         <v>2.5878000000000001</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="23">
         <v>4.2138</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="23">
         <v>3.4125999999999999</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="23">
         <v>3.3017253599999998</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="23">
         <v>2.5969000000000002</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="23">
         <v>2.9266840200000002</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="23">
         <v>3.0652180800000002</v>
       </c>
-      <c r="N35" s="28">
+      <c r="N35" s="23">
         <v>2.35307362</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="23">
         <v>2.4165561900000001</v>
       </c>
-      <c r="P35" s="28">
+      <c r="P35" s="23">
         <v>2.1384338700000001</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="23">
         <v>1.9840478500000001</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="23">
         <v>1.8953752399999999</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="23">
         <v>1.65543156</v>
       </c>
-      <c r="T35" s="28">
+      <c r="T35" s="23">
         <v>2.0118811999999999</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="23">
         <v>2.44104017</v>
       </c>
       <c r="V35" s="13">
         <v>2.29542694</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:26">
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
@@ -3109,137 +3118,137 @@
         <v>1.56092505</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B37" s="32" t="s">
+    <row r="37" spans="2:26">
+      <c r="B37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="25">
         <v>3.3246891199999999</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="25">
         <v>4.5902187027619998</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="25">
         <v>3.8974136599999998</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="25">
         <v>4.1611725100000001</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="25">
         <v>3.8961000000000001</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="25">
         <v>3.5958999999999999</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="25">
         <v>3.7721</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="25">
         <v>2.7536017500000001</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="25">
         <v>2.7875999999999999</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="25">
         <v>3.2980424699999999</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="25">
         <v>2.74256441</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="25">
         <v>2.3599748699999998</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="25">
         <v>3.3692865599999999</v>
       </c>
-      <c r="P37" s="33">
+      <c r="P37" s="25">
         <v>2.93788917</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="25">
         <v>2.3583399300000001</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="25">
         <v>2.8225105899999998</v>
       </c>
-      <c r="S37" s="33">
+      <c r="S37" s="25">
         <v>2.7216196799999999</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="25">
         <v>2.87226252</v>
       </c>
-      <c r="U37" s="33">
+      <c r="U37" s="25">
         <v>2.5525901100000001</v>
       </c>
-      <c r="V37" s="34">
+      <c r="V37" s="26">
         <v>2.6885930899999999</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="2:26">
+      <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="28">
         <v>2.9</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="28">
         <v>5.5</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="28">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="28">
         <v>3.8</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="28">
         <v>3.9</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="28">
         <v>4</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="28">
         <v>4.2</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="28">
         <v>3.5</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="28">
         <v>3</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="28">
         <v>3.3</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="28">
         <v>3.3</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="28">
         <v>2.8</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="28">
         <v>2.4</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="28">
         <v>2.6520329203049999</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="28">
         <v>2.8774210909739999</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="28">
         <v>2.613759785893</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T38" s="36">
+      <c r="T38" s="28">
         <v>2.8</v>
       </c>
-      <c r="U38" s="36">
+      <c r="U38" s="28">
         <v>2.9</v>
       </c>
-      <c r="V38" s="37">
+      <c r="V38" s="29">
         <v>2.4</v>
       </c>
     </row>
-    <row r="39" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:26" s="9" customFormat="1">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
@@ -3247,19 +3256,19 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:26">
       <c r="B40" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:26">
       <c r="S41" s="19"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="2:26">
       <c r="S42" s="19"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0CC8F-25C4-40FD-9184-5D1F55BE92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F440C8E-22F3-471D-81E2-911821D62D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -1025,14 +1025,14 @@
       <c r="V6" s="8">
         <v>2.26459755</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="10">
         <v>2025</v>
       </c>
-      <c r="Y6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>2.5114197458550001</v>
+      <c r="Y6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>2.2221963213599998</v>
       </c>
     </row>
     <row r="7" spans="2:26">
@@ -1099,14 +1099,14 @@
       <c r="V7" s="13">
         <v>2.4591017100000001</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="14">
         <v>2025</v>
       </c>
-      <c r="Y7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="22">
-        <v>2.7</v>
+      <c r="Y7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>2.5114197458550001</v>
       </c>
     </row>
     <row r="8" spans="2:26">
@@ -1173,14 +1173,14 @@
       <c r="V8" s="8">
         <v>1.8888809900000001</v>
       </c>
-      <c r="X8" s="14">
-        <v>2024</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>2.4</v>
+      <c r="X8" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="2:26">
@@ -1247,14 +1247,14 @@
       <c r="V9" s="13">
         <v>1.8974239500000001</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="14">
         <v>2024</v>
       </c>
-      <c r="Y9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>2.6</v>
+      <c r="Y9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" customHeight="1">
@@ -1321,14 +1321,14 @@
       <c r="V10" s="8">
         <v>3.50216284</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="10">
         <v>2024</v>
       </c>
-      <c r="Y10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>2.5</v>
+      <c r="Y10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="2:26">
@@ -1395,14 +1395,14 @@
       <c r="V11" s="13">
         <v>2.2341665100000001</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="14">
         <v>2024</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>2.9</v>
+      <c r="Y11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -1469,14 +1469,14 @@
       <c r="V12" s="8">
         <v>2.7596628999999999</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="10">
         <v>2024</v>
       </c>
-      <c r="Y12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>3.0373716149260002</v>
+      <c r="Y12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="2:26">
@@ -1543,14 +1543,14 @@
       <c r="V13" s="13">
         <v>2.1212565400000001</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="14">
         <v>2024</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="20">
-        <v>2.9</v>
+      <c r="Y13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>3.0373716149260002</v>
       </c>
     </row>
     <row r="14" spans="2:26">
@@ -1617,14 +1617,14 @@
       <c r="V14" s="8">
         <v>3.9891847999999999</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="10">
         <v>2024</v>
       </c>
-      <c r="Y14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>2.8</v>
+      <c r="Y14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>2.9</v>
       </c>
     </row>
     <row r="15" spans="2:26">
@@ -1691,14 +1691,14 @@
       <c r="V15" s="13">
         <v>3.0620892099999999</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="14">
         <v>2024</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>2.6</v>
+      <c r="Y15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>2.8</v>
       </c>
     </row>
     <row r="16" spans="2:26">
@@ -1765,13 +1765,13 @@
       <c r="V16" s="8">
         <v>2.2986714699999999</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="10">
         <v>2024</v>
       </c>
-      <c r="Y16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" s="21">
+      <c r="Y16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="20">
         <v>2.6</v>
       </c>
     </row>
@@ -1839,14 +1839,14 @@
       <c r="V17" s="13">
         <v>1.2922969799999999</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="14">
         <v>2024</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z17" s="20">
-        <v>2.2999999999999998</v>
+      <c r="Y17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="2:36">
@@ -1913,14 +1913,14 @@
       <c r="V18" s="8">
         <v>1.8124401999999999</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="10">
         <v>2024</v>
       </c>
-      <c r="Y18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>2.5</v>
+      <c r="Y18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:36">
@@ -1987,14 +1987,14 @@
       <c r="V19" s="13">
         <v>2.1288924599999999</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="14">
         <v>2024</v>
       </c>
-      <c r="Y19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z19" s="22">
-        <v>2.8530240195499998</v>
+      <c r="Y19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="2:36">
@@ -2060,6 +2060,15 @@
       </c>
       <c r="V20" s="8">
         <v>2.9006819199999998</v>
+      </c>
+      <c r="X20" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z20" s="22">
+        <v>2.8530240195499998</v>
       </c>
     </row>
     <row r="21" spans="2:36" ht="15" customHeight="1">

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F440C8E-22F3-471D-81E2-911821D62D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A7E93C-0768-4F7D-8ACB-00D64BDE3512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Trim IV</t>
   </si>
   <si>
-    <t>Tren I</t>
-  </si>
-  <si>
     <t>Sector laboral, Tasa de desempleo</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -529,6 +526,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AJ42"/>
+  <dimension ref="B1:AK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -786,25 +786,25 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="18" width="7.25" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.75" style="1" customWidth="1"/>
-    <col min="20" max="22" width="7.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.75" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="7.125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="6.875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="7.875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="25" style="1" customWidth="1"/>
-    <col min="35" max="35" width="7.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="11" style="1"/>
+    <col min="20" max="23" width="7.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="7.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="7.875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.75" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:27">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -815,9 +815,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:26" ht="18">
+    <row r="2" spans="2:27" ht="18">
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
@@ -833,7 +833,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:27">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:27">
       <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
@@ -885,20 +885,23 @@
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="37"/>
-      <c r="X4" s="34" t="s">
+      <c r="W4" s="38">
+        <v>2025</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="AA4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="2:27" ht="24" customHeight="1">
       <c r="B5" s="32"/>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>39</v>
@@ -957,11 +960,14 @@
       <c r="V5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="34"/>
+      <c r="W5" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
-    </row>
-    <row r="6" spans="2:26" s="9" customFormat="1">
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="2:27" s="9" customFormat="1">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -969,7 +975,7 @@
         <v>3.3500914399999999</v>
       </c>
       <c r="D6" s="7">
-        <v>4.5336466893629996</v>
+        <v>4.5336466890000002</v>
       </c>
       <c r="E6" s="7">
         <v>5.1923026700000001</v>
@@ -1022,20 +1028,23 @@
       <c r="U6" s="7">
         <v>4.2345522500000001</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>2.26459755</v>
       </c>
-      <c r="X6" s="10">
+      <c r="W6" s="8">
+        <v>2.1431278100000002</v>
+      </c>
+      <c r="Y6" s="14">
         <v>2025</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>2.2221963213599998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26">
+      <c r="Z6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>2.5391063668279998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>2.1679783399999999</v>
       </c>
       <c r="D7" s="23">
-        <v>3.7235528235030002</v>
+        <v>3.723552824</v>
       </c>
       <c r="E7" s="23">
         <v>2.7481679699999999</v>
@@ -1096,20 +1105,23 @@
       <c r="U7" s="23">
         <v>2.7233209299999999</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="23">
         <v>2.4591017100000001</v>
       </c>
-      <c r="X7" s="14">
+      <c r="W7" s="13">
+        <v>2.1642329299999998</v>
+      </c>
+      <c r="Y7" s="10">
         <v>2025</v>
       </c>
-      <c r="Y7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>2.5114197458550001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26">
+      <c r="Z7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>2.2221963213599998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>3.8370306699999999</v>
       </c>
       <c r="D8" s="7">
-        <v>6.0493830167910003</v>
+        <v>6.0493830170000003</v>
       </c>
       <c r="E8" s="7">
         <v>7.3877783299999997</v>
@@ -1170,20 +1182,23 @@
       <c r="U8" s="7">
         <v>2.5204771899999998</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>1.8888809900000001</v>
       </c>
-      <c r="X8" s="16">
+      <c r="W8" s="8">
+        <v>2.8283050699999999</v>
+      </c>
+      <c r="Y8" s="14">
         <v>2025</v>
       </c>
-      <c r="Y8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" s="22">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26">
+      <c r="Z8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>2.5114197458550001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1244,390 +1259,408 @@
       <c r="U9" s="23">
         <v>1.9509284</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="23">
         <v>1.8974239500000001</v>
       </c>
-      <c r="X9" s="14">
-        <v>2024</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1">
+      <c r="W9" s="13">
+        <v>2.0664331499999999</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>2.6999513831350002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="15" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>4.7671922999999996</v>
+        <v>2.5838595400000002</v>
       </c>
       <c r="D10" s="7">
-        <v>4.9498237986079996</v>
+        <v>5.5579561049999997</v>
       </c>
       <c r="E10" s="7">
-        <v>7.3716694199999999</v>
+        <v>3.39902156</v>
       </c>
       <c r="F10" s="7">
-        <v>6.1579439200000001</v>
+        <v>2.7257753299999998</v>
       </c>
       <c r="G10" s="7">
-        <v>5.1109999999999998</v>
+        <v>3.1741999999999999</v>
       </c>
       <c r="H10" s="7">
-        <v>4.8421000000000003</v>
+        <v>2.9087000000000001</v>
       </c>
       <c r="I10" s="7">
-        <v>4.9301000000000004</v>
+        <v>3.2826</v>
       </c>
       <c r="J10" s="7">
-        <v>4.8089200300000003</v>
+        <v>3.3313089599999999</v>
       </c>
       <c r="K10" s="7">
-        <v>5.0227000000000004</v>
+        <v>2.4994999999999998</v>
       </c>
       <c r="L10" s="7">
-        <v>4.02556783</v>
+        <v>2.58906444</v>
       </c>
       <c r="M10" s="7">
-        <v>4.2434244200000002</v>
+        <v>2.2884669</v>
       </c>
       <c r="N10" s="7">
-        <v>3.41465789</v>
+        <v>2.3269791999999998</v>
       </c>
       <c r="O10" s="7">
-        <v>3.6283322299999998</v>
+        <v>2.4880096100000002</v>
       </c>
       <c r="P10" s="7">
-        <v>3.70272669</v>
+        <v>1.8391338800000001</v>
       </c>
       <c r="Q10" s="7">
-        <v>3.87742458</v>
+        <v>2.4787712599999998</v>
       </c>
       <c r="R10" s="7">
-        <v>4.3396756500000002</v>
+        <v>1.73475884</v>
       </c>
       <c r="S10" s="7">
-        <v>4.1670313099999996</v>
+        <v>1.6975867600000001</v>
       </c>
       <c r="T10" s="7">
-        <v>3.7141300300000002</v>
+        <v>1.5747210899999999</v>
       </c>
       <c r="U10" s="7">
-        <v>4.1487944199999998</v>
-      </c>
-      <c r="V10" s="8">
-        <v>3.50216284</v>
-      </c>
-      <c r="X10" s="10">
+        <v>1.96987321</v>
+      </c>
+      <c r="V10" s="7">
+        <v>2.7596628999999999</v>
+      </c>
+      <c r="W10" s="8">
+        <v>2.4743386699999999</v>
+      </c>
+      <c r="Y10" s="14">
         <v>2024</v>
       </c>
-      <c r="Y10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26">
+      <c r="Z10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>2.4323414961659999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="23">
-        <v>3.1287217100000002</v>
+        <v>3.4911393300000002</v>
       </c>
       <c r="D11" s="23">
-        <v>5.6749883899600002</v>
+        <v>3.0033722909999998</v>
       </c>
       <c r="E11" s="23">
-        <v>4.1445264799999997</v>
+        <v>4.6977971600000004</v>
       </c>
       <c r="F11" s="23">
-        <v>3.8091646199999998</v>
+        <v>3.7350676799999998</v>
       </c>
       <c r="G11" s="23">
-        <v>3.2056</v>
+        <v>3.9754999999999998</v>
       </c>
       <c r="H11" s="23">
-        <v>3.1979000000000002</v>
+        <v>3.6124000000000001</v>
       </c>
       <c r="I11" s="23">
-        <v>2.9165000000000001</v>
+        <v>3.0286</v>
       </c>
       <c r="J11" s="23">
-        <v>3.12393499</v>
+        <v>2.8667256700000001</v>
       </c>
       <c r="K11" s="23">
-        <v>2.7711999999999999</v>
+        <v>2.5998000000000001</v>
       </c>
       <c r="L11" s="23">
-        <v>2.56226011</v>
+        <v>2.4555326800000001</v>
       </c>
       <c r="M11" s="23">
-        <v>2.6098454000000002</v>
+        <v>2.4653640399999999</v>
       </c>
       <c r="N11" s="23">
-        <v>2.3576337000000001</v>
+        <v>1.9890553399999999</v>
       </c>
       <c r="O11" s="23">
-        <v>2.1347757700000001</v>
+        <v>2.7844147700000001</v>
       </c>
       <c r="P11" s="23">
-        <v>2.2065504499999999</v>
+        <v>2.4785179099999999</v>
       </c>
       <c r="Q11" s="23">
-        <v>2.5596532600000002</v>
+        <v>2.81497544</v>
       </c>
       <c r="R11" s="23">
-        <v>2.3033615099999998</v>
+        <v>1.92982532</v>
       </c>
       <c r="S11" s="23">
-        <v>2.10576973</v>
+        <v>2.2383546399999998</v>
       </c>
       <c r="T11" s="23">
-        <v>2.1113554699999999</v>
+        <v>2.5346683200000002</v>
       </c>
       <c r="U11" s="23">
-        <v>2.3396167499999998</v>
-      </c>
-      <c r="V11" s="13">
-        <v>2.2341665100000001</v>
-      </c>
-      <c r="X11" s="14">
+        <v>2.62463011</v>
+      </c>
+      <c r="V11" s="23">
+        <v>2.1212565400000001</v>
+      </c>
+      <c r="W11" s="13">
+        <v>2.04531237</v>
+      </c>
+      <c r="Y11" s="10">
         <v>2024</v>
       </c>
-      <c r="Y11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26">
+      <c r="Z11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>2.6388327820440001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7">
-        <v>2.5838595400000002</v>
+        <v>4.7252435300000002</v>
       </c>
       <c r="D12" s="7">
-        <v>5.5579561052970003</v>
+        <v>6.0300804670000003</v>
       </c>
       <c r="E12" s="7">
-        <v>3.39902156</v>
+        <v>7.9909048599999997</v>
       </c>
       <c r="F12" s="7">
-        <v>2.7257753299999998</v>
+        <v>6.6314211299999997</v>
       </c>
       <c r="G12" s="7">
-        <v>3.1741999999999999</v>
+        <v>7.3090999999999999</v>
       </c>
       <c r="H12" s="7">
-        <v>2.9087000000000001</v>
+        <v>7.2567000000000004</v>
       </c>
       <c r="I12" s="7">
-        <v>3.2826</v>
+        <v>6.9911000000000003</v>
       </c>
       <c r="J12" s="7">
-        <v>3.3313089599999999</v>
+        <v>5.8917331700000002</v>
       </c>
       <c r="K12" s="7">
-        <v>2.4994999999999998</v>
+        <v>5.8476999999999997</v>
       </c>
       <c r="L12" s="7">
-        <v>2.58906444</v>
+        <v>5.3983559000000003</v>
       </c>
       <c r="M12" s="7">
-        <v>2.2884669</v>
+        <v>5.2519998799999996</v>
       </c>
       <c r="N12" s="7">
-        <v>2.3269791999999998</v>
+        <v>4.5306048499999996</v>
       </c>
       <c r="O12" s="7">
-        <v>2.4880096100000002</v>
+        <v>3.7525508699999999</v>
       </c>
       <c r="P12" s="7">
-        <v>1.8391338800000001</v>
+        <v>4.3695472799999999</v>
       </c>
       <c r="Q12" s="7">
-        <v>2.4787712599999998</v>
+        <v>4.0664964399999999</v>
       </c>
       <c r="R12" s="7">
-        <v>1.73475884</v>
+        <v>3.90903658</v>
       </c>
       <c r="S12" s="7">
-        <v>1.6975867600000001</v>
+        <v>3.9708051100000001</v>
       </c>
       <c r="T12" s="7">
-        <v>1.5747210899999999</v>
+        <v>4.0401582200000004</v>
       </c>
       <c r="U12" s="7">
-        <v>1.96987321</v>
-      </c>
-      <c r="V12" s="8">
-        <v>2.7596628999999999</v>
-      </c>
-      <c r="X12" s="10">
+        <v>3.9646814699999999</v>
+      </c>
+      <c r="V12" s="7">
+        <v>3.9891847999999999</v>
+      </c>
+      <c r="W12" s="8">
+        <v>3.4304481099999999</v>
+      </c>
+      <c r="Y12" s="14">
         <v>2024</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26">
+      <c r="Z12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>2.500181580654</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="23">
-        <v>3.4911393300000002</v>
+        <v>4.7671922999999996</v>
       </c>
       <c r="D13" s="23">
-        <v>3.0033722905200002</v>
+        <v>4.9498237989999998</v>
       </c>
       <c r="E13" s="23">
-        <v>4.6977971600000004</v>
+        <v>7.3716694199999999</v>
       </c>
       <c r="F13" s="23">
-        <v>3.7350676799999998</v>
+        <v>6.1579439200000001</v>
       </c>
       <c r="G13" s="23">
-        <v>3.9754999999999998</v>
+        <v>5.1109999999999998</v>
       </c>
       <c r="H13" s="23">
-        <v>3.6124000000000001</v>
+        <v>4.8421000000000003</v>
       </c>
       <c r="I13" s="23">
-        <v>3.0286</v>
+        <v>4.9301000000000004</v>
       </c>
       <c r="J13" s="23">
-        <v>2.8667256700000001</v>
+        <v>4.8089200300000003</v>
       </c>
       <c r="K13" s="23">
-        <v>2.5998000000000001</v>
+        <v>5.0227000000000004</v>
       </c>
       <c r="L13" s="23">
-        <v>2.4555326800000001</v>
+        <v>4.02556783</v>
       </c>
       <c r="M13" s="23">
-        <v>2.4653640399999999</v>
+        <v>4.2434244200000002</v>
       </c>
       <c r="N13" s="23">
-        <v>1.9890553399999999</v>
+        <v>3.41465789</v>
       </c>
       <c r="O13" s="23">
-        <v>2.7844147700000001</v>
+        <v>3.6283322299999998</v>
       </c>
       <c r="P13" s="23">
-        <v>2.4785179099999999</v>
+        <v>3.70272669</v>
       </c>
       <c r="Q13" s="23">
-        <v>2.81497544</v>
+        <v>3.87742458</v>
       </c>
       <c r="R13" s="23">
-        <v>1.92982532</v>
+        <v>4.3396756500000002</v>
       </c>
       <c r="S13" s="23">
-        <v>2.2383546399999998</v>
+        <v>4.1670313099999996</v>
       </c>
       <c r="T13" s="23">
-        <v>2.5346683200000002</v>
+        <v>3.7141300300000002</v>
       </c>
       <c r="U13" s="23">
-        <v>2.62463011</v>
-      </c>
-      <c r="V13" s="13">
-        <v>2.1212565400000001</v>
-      </c>
-      <c r="X13" s="14">
+        <v>4.1487944199999998</v>
+      </c>
+      <c r="V13" s="23">
+        <v>3.50216284</v>
+      </c>
+      <c r="W13" s="13">
+        <v>3.54693521</v>
+      </c>
+      <c r="Y13" s="10">
         <v>2024</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>3.0373716149260002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26">
+      <c r="Z13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="20">
+        <v>2.9225135880419999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7">
-        <v>4.7252435300000002</v>
+        <v>3.1287217100000002</v>
       </c>
       <c r="D14" s="7">
-        <v>6.0300804669829997</v>
+        <v>5.6749883900000002</v>
       </c>
       <c r="E14" s="7">
-        <v>7.9909048599999997</v>
+        <v>4.1445264799999997</v>
       </c>
       <c r="F14" s="7">
-        <v>6.6314211299999997</v>
+        <v>3.8091646199999998</v>
       </c>
       <c r="G14" s="7">
-        <v>7.3090999999999999</v>
+        <v>3.2056</v>
       </c>
       <c r="H14" s="7">
-        <v>7.2567000000000004</v>
+        <v>3.1979000000000002</v>
       </c>
       <c r="I14" s="7">
-        <v>6.9911000000000003</v>
+        <v>2.9165000000000001</v>
       </c>
       <c r="J14" s="7">
-        <v>5.8917331700000002</v>
+        <v>3.12393499</v>
       </c>
       <c r="K14" s="7">
-        <v>5.8476999999999997</v>
+        <v>2.7711999999999999</v>
       </c>
       <c r="L14" s="7">
-        <v>5.3983559000000003</v>
+        <v>2.56226011</v>
       </c>
       <c r="M14" s="7">
-        <v>5.2519998799999996</v>
+        <v>2.6098454000000002</v>
       </c>
       <c r="N14" s="7">
-        <v>4.5306048499999996</v>
+        <v>2.3576337000000001</v>
       </c>
       <c r="O14" s="7">
-        <v>3.7525508699999999</v>
+        <v>2.1347757700000001</v>
       </c>
       <c r="P14" s="7">
-        <v>4.3695472799999999</v>
+        <v>2.2065504499999999</v>
       </c>
       <c r="Q14" s="7">
-        <v>4.0664964399999999</v>
+        <v>2.5596532600000002</v>
       </c>
       <c r="R14" s="7">
-        <v>3.90903658</v>
+        <v>2.3033615099999998</v>
       </c>
       <c r="S14" s="7">
-        <v>3.9708051100000001</v>
+        <v>2.10576973</v>
       </c>
       <c r="T14" s="7">
-        <v>4.0401582200000004</v>
+        <v>2.1113554699999999</v>
       </c>
       <c r="U14" s="7">
-        <v>3.9646814699999999</v>
-      </c>
-      <c r="V14" s="8">
-        <v>3.9891847999999999</v>
-      </c>
-      <c r="X14" s="10">
+        <v>2.3396167499999998</v>
+      </c>
+      <c r="V14" s="7">
+        <v>2.2341665100000001</v>
+      </c>
+      <c r="W14" s="8">
+        <v>2.4336425500000001</v>
+      </c>
+      <c r="Y14" s="14">
         <v>2024</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26">
+      <c r="Z14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>3.0373716149260002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1668,7 @@
         <v>4.0551161799999997</v>
       </c>
       <c r="D15" s="23">
-        <v>4.5290169577550001</v>
+        <v>4.5290169579999997</v>
       </c>
       <c r="E15" s="23">
         <v>4.8087303199999996</v>
@@ -1688,20 +1721,23 @@
       <c r="U15" s="23">
         <v>3.29465232</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="23">
         <v>3.0620892099999999</v>
       </c>
-      <c r="X15" s="14">
+      <c r="W15" s="13">
+        <v>3.4472335200000002</v>
+      </c>
+      <c r="Y15" s="10">
         <v>2024</v>
       </c>
-      <c r="Y15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26">
+      <c r="Z15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="20">
+        <v>2.9274006662250001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>3.55996596</v>
       </c>
       <c r="D16" s="7">
-        <v>4.3627953654120004</v>
+        <v>4.3627953650000002</v>
       </c>
       <c r="E16" s="7">
         <v>6.64331139</v>
@@ -1762,20 +1798,23 @@
       <c r="U16" s="7">
         <v>3.35085509</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <v>2.2986714699999999</v>
       </c>
-      <c r="X16" s="10">
+      <c r="W16" s="8">
+        <v>2.5425498000000002</v>
+      </c>
+      <c r="Y16" s="14">
         <v>2024</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:36">
+      <c r="Z16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>2.7750241231800001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37">
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1822,7 @@
         <v>1.5839889300000001</v>
       </c>
       <c r="D17" s="23">
-        <v>3.8087971061510002</v>
+        <v>3.8087971060000001</v>
       </c>
       <c r="E17" s="23">
         <v>3.2862965900000001</v>
@@ -1836,20 +1875,23 @@
       <c r="U17" s="23">
         <v>1.3171719200000001</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="23">
         <v>1.2922969799999999</v>
       </c>
-      <c r="X17" s="14">
+      <c r="W17" s="13">
+        <v>0.88292219999999999</v>
+      </c>
+      <c r="Y17" s="10">
         <v>2024</v>
       </c>
-      <c r="Y17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:36">
+      <c r="Z17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA17" s="20">
+        <v>2.6217754309229999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +1899,7 @@
         <v>1.8679109899999999</v>
       </c>
       <c r="D18" s="7">
-        <v>4.0615382524330004</v>
+        <v>4.0615382520000001</v>
       </c>
       <c r="E18" s="7">
         <v>3.33657922</v>
@@ -1910,20 +1952,23 @@
       <c r="U18" s="7">
         <v>1.9092667400000001</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>1.8124401999999999</v>
       </c>
-      <c r="X18" s="10">
+      <c r="W18" s="8">
+        <v>1.94817225</v>
+      </c>
+      <c r="Y18" s="14">
         <v>2024</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36">
+      <c r="Z18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>2.6107368394420001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1976,7 @@
         <v>2.9374560000000001</v>
       </c>
       <c r="D19" s="23">
-        <v>4.1598062785690004</v>
+        <v>4.1598062789999997</v>
       </c>
       <c r="E19" s="23">
         <v>5.0007939300000004</v>
@@ -1984,20 +2029,23 @@
       <c r="U19" s="23">
         <v>2.6267762800000001</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="23">
         <v>2.1288924599999999</v>
       </c>
-      <c r="X19" s="14">
+      <c r="W19" s="13">
+        <v>1.6904290099999999</v>
+      </c>
+      <c r="Y19" s="10">
         <v>2024</v>
       </c>
-      <c r="Y19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:36">
+      <c r="Z19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>2.2820670804450001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2053,7 @@
         <v>5.2270884999999998</v>
       </c>
       <c r="D20" s="7">
-        <v>5.909075087113</v>
+        <v>5.9090750869999997</v>
       </c>
       <c r="E20" s="7">
         <v>6.5650954199999996</v>
@@ -2058,20 +2106,23 @@
       <c r="U20" s="7">
         <v>3.9943297800000002</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>2.9006819199999998</v>
       </c>
-      <c r="X20" s="16">
+      <c r="W20" s="8">
+        <v>2.7359321699999999</v>
+      </c>
+      <c r="Y20" s="14">
         <v>2024</v>
       </c>
-      <c r="Y20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z20" s="22">
-        <v>2.8530240195499998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" ht="15" customHeight="1">
+      <c r="Z20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>2.4540025994449999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="15" customHeight="1">
       <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
@@ -2079,7 +2130,7 @@
         <v>2.34419829</v>
       </c>
       <c r="D21" s="23">
-        <v>3.6889590710990001</v>
+        <v>3.6889590710000002</v>
       </c>
       <c r="E21" s="23">
         <v>2.5568296699999999</v>
@@ -2132,14 +2183,23 @@
       <c r="U21" s="23">
         <v>2.2302379999999999</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="23">
         <v>1.4582819899999999</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="2:36">
+      <c r="W21" s="13">
+        <v>1.1713718200000001</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Z21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>2.8530240195499998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2207,7 @@
         <v>1.9470598800000001</v>
       </c>
       <c r="D22" s="7">
-        <v>4.4836173139289999</v>
+        <v>4.483617314</v>
       </c>
       <c r="E22" s="7">
         <v>2.72547439</v>
@@ -2200,14 +2260,17 @@
       <c r="U22" s="7">
         <v>1.92952038</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="7">
         <v>2.1240311300000001</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="W22" s="8">
+        <v>1.05040859</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="2:36">
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="2:37">
       <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2278,7 @@
         <v>3.7112764399999998</v>
       </c>
       <c r="D23" s="23">
-        <v>5.8885601693850003</v>
+        <v>5.8885601689999998</v>
       </c>
       <c r="E23" s="23">
         <v>5.2159162300000004</v>
@@ -2268,11 +2331,14 @@
       <c r="U23" s="23">
         <v>2.7178060300000002</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="23">
         <v>2.00958266</v>
       </c>
-    </row>
-    <row r="24" spans="2:36">
+      <c r="W23" s="13">
+        <v>2.43343599</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2280,7 +2346,7 @@
         <v>3.7449006499999999</v>
       </c>
       <c r="D24" s="7">
-        <v>4.3615343831390003</v>
+        <v>4.3615343830000004</v>
       </c>
       <c r="E24" s="7">
         <v>5.2598424599999998</v>
@@ -2333,16 +2399,19 @@
       <c r="U24" s="7">
         <v>3.5590868100000002</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="7">
         <v>2.6077993899999998</v>
       </c>
-      <c r="AH24" s="30" t="s">
+      <c r="W24" s="8">
+        <v>2.7544863500000001</v>
+      </c>
+      <c r="AI24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AI24" s="30"/>
       <c r="AJ24" s="30"/>
-    </row>
-    <row r="25" spans="2:36">
+      <c r="AK24" s="30"/>
+    </row>
+    <row r="25" spans="2:37">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2419,7 @@
         <v>1.7074406200000001</v>
       </c>
       <c r="D25" s="23">
-        <v>3.6823497055669998</v>
+        <v>3.6823497060000001</v>
       </c>
       <c r="E25" s="23">
         <v>3.0591167600000002</v>
@@ -2403,16 +2472,19 @@
       <c r="U25" s="23">
         <v>1.04523283</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="23">
         <v>1.8734331399999999</v>
       </c>
-      <c r="AH25" s="30" t="s">
+      <c r="W25" s="13">
+        <v>1.63216312</v>
+      </c>
+      <c r="AI25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AI25" s="30"/>
       <c r="AJ25" s="30"/>
-    </row>
-    <row r="26" spans="2:36">
+      <c r="AK25" s="30"/>
+    </row>
+    <row r="26" spans="2:37">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2420,7 +2492,7 @@
         <v>2.8017511800000001</v>
       </c>
       <c r="D26" s="7">
-        <v>3.6943422058389999</v>
+        <v>3.694342206</v>
       </c>
       <c r="E26" s="7">
         <v>4.6718903100000002</v>
@@ -2473,11 +2545,14 @@
       <c r="U26" s="7">
         <v>2.5980141099999998</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="7">
         <v>2.2252721599999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:36">
+      <c r="W26" s="8">
+        <v>2.5123200200000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37">
       <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
@@ -2485,7 +2560,7 @@
         <v>3.49575513</v>
       </c>
       <c r="D27" s="23">
-        <v>6.048082627875</v>
+        <v>6.0480826280000004</v>
       </c>
       <c r="E27" s="23">
         <v>8.2183487599999996</v>
@@ -2538,11 +2613,14 @@
       <c r="U27" s="23">
         <v>2.3946212600000001</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="23">
         <v>2.0692731800000002</v>
       </c>
-    </row>
-    <row r="28" spans="2:36">
+      <c r="W27" s="13">
+        <v>1.9776927099999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -2550,7 +2628,7 @@
         <v>2.9633595000000001</v>
       </c>
       <c r="D28" s="7">
-        <v>4.8171318949120003</v>
+        <v>4.8171318950000002</v>
       </c>
       <c r="E28" s="7">
         <v>10.170377569999999</v>
@@ -2603,11 +2681,14 @@
       <c r="U28" s="7">
         <v>2.5896745999999999</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="7">
         <v>2.6682313999999998</v>
       </c>
-    </row>
-    <row r="29" spans="2:36">
+      <c r="W28" s="8">
+        <v>2.3819643099999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37">
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -2615,7 +2696,7 @@
         <v>2.0778713299999998</v>
       </c>
       <c r="D29" s="23">
-        <v>3.5439068643409999</v>
+        <v>3.5439068640000002</v>
       </c>
       <c r="E29" s="23">
         <v>3.9829591600000001</v>
@@ -2668,11 +2749,14 @@
       <c r="U29" s="23">
         <v>3.6596301499999999</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="23">
         <v>3.1512297600000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:36">
+      <c r="W29" s="13">
+        <v>3.1846564000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -2680,7 +2764,7 @@
         <v>2.8829516599999998</v>
       </c>
       <c r="D30" s="7">
-        <v>4.2331477414089997</v>
+        <v>4.2331477409999998</v>
       </c>
       <c r="E30" s="7">
         <v>5.2887342799999999</v>
@@ -2733,11 +2817,14 @@
       <c r="U30" s="7">
         <v>2.7632809900000002</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="7">
         <v>2.1046478199999998</v>
       </c>
-    </row>
-    <row r="31" spans="2:36">
+      <c r="W30" s="8">
+        <v>2.74549311</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37">
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
@@ -2745,7 +2832,7 @@
         <v>4.3705438000000001</v>
       </c>
       <c r="D31" s="23">
-        <v>5.372948325976</v>
+        <v>5.3729483260000004</v>
       </c>
       <c r="E31" s="23">
         <v>6.6877965100000001</v>
@@ -2798,11 +2885,14 @@
       <c r="U31" s="23">
         <v>3.5718570500000002</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="23">
         <v>2.9038677700000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:36">
+      <c r="W31" s="13">
+        <v>2.5651548900000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37">
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2810,7 +2900,7 @@
         <v>5.2696073700000001</v>
       </c>
       <c r="D32" s="7">
-        <v>8.5640108100940004</v>
+        <v>8.5640108099999992</v>
       </c>
       <c r="E32" s="7">
         <v>7.4512187000000001</v>
@@ -2863,11 +2953,14 @@
       <c r="U32" s="7">
         <v>4.4279886499999996</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="7">
         <v>4.1384578100000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:26">
+      <c r="W32" s="8">
+        <v>4.9393897000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27">
       <c r="B33" s="12" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +2968,7 @@
         <v>3.1892369399999998</v>
       </c>
       <c r="D33" s="23">
-        <v>4.4766470929609996</v>
+        <v>4.4766470930000004</v>
       </c>
       <c r="E33" s="23">
         <v>3.7868061700000002</v>
@@ -2928,11 +3021,14 @@
       <c r="U33" s="23">
         <v>3.3399522199999998</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="23">
         <v>3.0147922399999998</v>
       </c>
-    </row>
-    <row r="34" spans="2:26">
+      <c r="W33" s="13">
+        <v>3.3903829600000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +3036,7 @@
         <v>4.0223771399999997</v>
       </c>
       <c r="D34" s="7">
-        <v>4.6905097815249999</v>
+        <v>4.6905097820000003</v>
       </c>
       <c r="E34" s="7">
         <v>6.4215565899999998</v>
@@ -2993,11 +3089,14 @@
       <c r="U34" s="7">
         <v>3.6146276099999999</v>
       </c>
-      <c r="V34" s="8">
+      <c r="V34" s="7">
         <v>2.56064084</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" ht="15" customHeight="1">
+      <c r="W34" s="8">
+        <v>2.53972285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="15" customHeight="1">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
@@ -3005,7 +3104,7 @@
         <v>2.6843662699999999</v>
       </c>
       <c r="D35" s="23">
-        <v>5.6061506395559997</v>
+        <v>5.6061506400000001</v>
       </c>
       <c r="E35" s="23">
         <v>2.75095745</v>
@@ -3058,11 +3157,14 @@
       <c r="U35" s="23">
         <v>2.44104017</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="23">
         <v>2.29542694</v>
       </c>
-    </row>
-    <row r="36" spans="2:26">
+      <c r="W35" s="13">
+        <v>1.96373665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27">
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3172,7 @@
         <v>1.9760782699999999</v>
       </c>
       <c r="D36" s="7">
-        <v>3.781877730283</v>
+        <v>3.7818777300000002</v>
       </c>
       <c r="E36" s="7">
         <v>3.5653796199999999</v>
@@ -3123,11 +3225,14 @@
       <c r="U36" s="7">
         <v>2.0699258</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="7">
         <v>1.56092505</v>
       </c>
-    </row>
-    <row r="37" spans="2:26">
+      <c r="W36" s="8">
+        <v>1.52775683</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27">
       <c r="B37" s="24" t="s">
         <v>31</v>
       </c>
@@ -3135,7 +3240,7 @@
         <v>3.3246891199999999</v>
       </c>
       <c r="D37" s="25">
-        <v>4.5902187027619998</v>
+        <v>4.5902187029999997</v>
       </c>
       <c r="E37" s="25">
         <v>3.8974136599999998</v>
@@ -3188,11 +3293,14 @@
       <c r="U37" s="25">
         <v>2.5525901100000001</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="25">
         <v>2.6885930899999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:26">
+      <c r="W37" s="26">
+        <v>2.8809446300000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27">
       <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
@@ -3221,19 +3329,19 @@
         <v>3.5</v>
       </c>
       <c r="K38" s="28">
-        <v>3</v>
+        <v>3.4606630654530002</v>
       </c>
       <c r="L38" s="28">
-        <v>3.3</v>
+        <v>3.350338642414</v>
       </c>
       <c r="M38" s="28">
-        <v>3.3</v>
+        <v>3.1225021298089999</v>
       </c>
       <c r="N38" s="28">
-        <v>2.8</v>
+        <v>2.938035461124</v>
       </c>
       <c r="O38" s="28">
-        <v>2.4</v>
+        <v>2.3925406807730001</v>
       </c>
       <c r="P38" s="28">
         <v>2.6520329203049999</v>
@@ -3245,52 +3353,58 @@
         <v>2.613759785893</v>
       </c>
       <c r="S38" s="28">
-        <v>2.2999999999999998</v>
+        <v>2.2820670804450001</v>
       </c>
       <c r="T38" s="28">
-        <v>2.8</v>
+        <v>2.7750241231800001</v>
       </c>
       <c r="U38" s="28">
-        <v>2.9</v>
-      </c>
-      <c r="V38" s="29">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" s="9" customFormat="1">
+        <v>2.9225135880419999</v>
+      </c>
+      <c r="V38" s="28">
+        <v>2.4323414961659999</v>
+      </c>
+      <c r="W38" s="29">
+        <v>2.2221963213599998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" s="9" customFormat="1">
       <c r="B39" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="X39" s="1"/>
+        <v>58</v>
+      </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="2:26">
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="2:27">
       <c r="B40" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:26">
+    <row r="41" spans="2:27">
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:27">
       <c r="S42" s="19"/>
-      <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="44" spans="2:27">
+      <c r="V44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="AI25:AK25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A7E93C-0768-4F7D-8ACB-00D64BDE3512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB1DED2-2055-47C5-A881-1E64DB48C88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -504,6 +504,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -526,9 +529,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -852,54 +852,54 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:27">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="34">
         <v>2020</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34">
         <v>2021</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34">
         <v>2022</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34">
         <v>2023</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="35">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="36">
         <v>2024</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38">
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="30">
         <v>2025</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="24" customHeight="1">
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
@@ -963,9 +963,9 @@
       <c r="W5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="2:27" s="9" customFormat="1">
       <c r="B6" s="6" t="s">
@@ -1038,10 +1038,10 @@
         <v>2025</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="21">
-        <v>2.5391063668279998</v>
+        <v>2.6871243735469998</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -1115,10 +1115,10 @@
         <v>2025</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA7" s="20">
-        <v>2.2221963213599998</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -1192,10 +1192,10 @@
         <v>2025</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA8" s="21">
-        <v>2.5114197458550001</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -1265,14 +1265,14 @@
       <c r="W9" s="13">
         <v>2.0664331499999999</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="10">
         <v>2025</v>
       </c>
-      <c r="Z9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>2.6999513831350002</v>
+      <c r="Z9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="15" customHeight="1">
@@ -1343,13 +1343,13 @@
         <v>2.4743386699999999</v>
       </c>
       <c r="Y10" s="14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="21">
-        <v>2.4323414961659999</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -1419,14 +1419,14 @@
       <c r="W11" s="13">
         <v>2.04531237</v>
       </c>
-      <c r="Y11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>2.6388327820440001</v>
+      <c r="Y11" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="2:27">
@@ -1500,10 +1500,10 @@
         <v>2024</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="21">
-        <v>2.500181580654</v>
+        <v>2.4323414961659999</v>
       </c>
     </row>
     <row r="13" spans="2:27">
@@ -1577,10 +1577,10 @@
         <v>2024</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA13" s="20">
-        <v>2.9225135880419999</v>
+        <v>2.6388327820440001</v>
       </c>
     </row>
     <row r="14" spans="2:27">
@@ -1654,10 +1654,10 @@
         <v>2024</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AA14" s="21">
-        <v>3.0373716149260002</v>
+        <v>2.500181580654</v>
       </c>
     </row>
     <row r="15" spans="2:27">
@@ -1731,10 +1731,10 @@
         <v>2024</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="20">
-        <v>2.9274006662250001</v>
+        <v>2.9225135880419999</v>
       </c>
     </row>
     <row r="16" spans="2:27">
@@ -1808,10 +1808,10 @@
         <v>2024</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA16" s="21">
-        <v>2.7750241231800001</v>
+        <v>3.0373716149260002</v>
       </c>
     </row>
     <row r="17" spans="2:37">
@@ -1885,10 +1885,10 @@
         <v>2024</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA17" s="20">
-        <v>2.6217754309229999</v>
+        <v>2.9274006662250001</v>
       </c>
     </row>
     <row r="18" spans="2:37">
@@ -1962,10 +1962,10 @@
         <v>2024</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA18" s="21">
-        <v>2.6107368394420001</v>
+        <v>2.7750241231800001</v>
       </c>
     </row>
     <row r="19" spans="2:37">
@@ -2039,10 +2039,10 @@
         <v>2024</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA19" s="20">
-        <v>2.2820670804450001</v>
+        <v>2.6217754309229999</v>
       </c>
     </row>
     <row r="20" spans="2:37">
@@ -2116,10 +2116,10 @@
         <v>2024</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA20" s="21">
-        <v>2.4540025994449999</v>
+        <v>2.6107368394420001</v>
       </c>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1">
@@ -2189,14 +2189,14 @@
       <c r="W21" s="13">
         <v>1.1713718200000001</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y21" s="10">
         <v>2024</v>
       </c>
-      <c r="Z21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="22">
-        <v>2.8530240195499998</v>
+      <c r="Z21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" s="20">
+        <v>2.2820670804450001</v>
       </c>
     </row>
     <row r="22" spans="2:37">
@@ -2266,9 +2266,15 @@
       <c r="W22" s="8">
         <v>1.05040859</v>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="Y22" s="14">
+        <v>2024</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>2.4540025994449999</v>
+      </c>
     </row>
     <row r="23" spans="2:37">
       <c r="B23" s="12" t="s">
@@ -2337,6 +2343,15 @@
       <c r="W23" s="13">
         <v>2.43343599</v>
       </c>
+      <c r="Y23" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Z23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>2.8530240195499998</v>
+      </c>
     </row>
     <row r="24" spans="2:37">
       <c r="B24" s="6" t="s">
@@ -2405,11 +2420,11 @@
       <c r="W24" s="8">
         <v>2.7544863500000001</v>
       </c>
-      <c r="AI24" s="30" t="s">
+      <c r="AI24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
     </row>
     <row r="25" spans="2:37">
       <c r="B25" s="12" t="s">
@@ -2478,11 +2493,11 @@
       <c r="W25" s="13">
         <v>1.63216312</v>
       </c>
-      <c r="AI25" s="30" t="s">
+      <c r="AI25" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
     </row>
     <row r="26" spans="2:37">
       <c r="B26" s="6" t="s">

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB1DED2-2055-47C5-A881-1E64DB48C88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010599C0-A95D-4C02-94FC-50423B61676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -1034,14 +1034,14 @@
       <c r="W6" s="8">
         <v>2.1431278100000002</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="10">
         <v>2025</v>
       </c>
-      <c r="Z6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>2.6871243735469998</v>
+      <c r="Z6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>2.7728254442679998</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -1111,14 +1111,14 @@
       <c r="W7" s="13">
         <v>2.1642329299999998</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="14">
         <v>2025</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>2.7</v>
+      <c r="Z7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>2.6871243735469998</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -1188,14 +1188,14 @@
       <c r="W8" s="8">
         <v>2.8283050699999999</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="10">
         <v>2025</v>
       </c>
-      <c r="Z8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>2.54</v>
+      <c r="Z8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>2.746313876486</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -1265,14 +1265,14 @@
       <c r="W9" s="13">
         <v>2.0664331499999999</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="14">
         <v>2025</v>
       </c>
-      <c r="Z9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>2.2200000000000002</v>
+      <c r="Z9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>2.5391063668279998</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="15" customHeight="1">
@@ -1342,14 +1342,14 @@
       <c r="W10" s="8">
         <v>2.4743386699999999</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="10">
         <v>2025</v>
       </c>
-      <c r="Z10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="21">
-        <v>2.5099999999999998</v>
+      <c r="Z10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>2.2221963213599998</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -1419,14 +1419,14 @@
       <c r="W11" s="13">
         <v>2.04531237</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="14">
         <v>2025</v>
       </c>
-      <c r="Z11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>2.7</v>
+      <c r="Z11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>2.5114197458550001</v>
       </c>
     </row>
     <row r="12" spans="2:27">
@@ -1496,14 +1496,14 @@
       <c r="W12" s="8">
         <v>3.4304481099999999</v>
       </c>
-      <c r="Y12" s="14">
-        <v>2024</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>2.4323414961659999</v>
+      <c r="Y12" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="2:27">
@@ -1573,14 +1573,14 @@
       <c r="W13" s="13">
         <v>3.54693521</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="14">
         <v>2024</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA13" s="20">
-        <v>2.6388327820440001</v>
+      <c r="Z13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>2.4323414961659999</v>
       </c>
     </row>
     <row r="14" spans="2:27">
@@ -1650,14 +1650,14 @@
       <c r="W14" s="8">
         <v>2.4336425500000001</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="10">
         <v>2024</v>
       </c>
-      <c r="Z14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>2.500181580654</v>
+      <c r="Z14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>2.6388327820440001</v>
       </c>
     </row>
     <row r="15" spans="2:27">
@@ -1727,14 +1727,14 @@
       <c r="W15" s="13">
         <v>3.4472335200000002</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="14">
         <v>2024</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="20">
-        <v>2.9225135880419999</v>
+      <c r="Z15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>2.500181580654</v>
       </c>
     </row>
     <row r="16" spans="2:27">
@@ -1804,14 +1804,14 @@
       <c r="W16" s="8">
         <v>2.5425498000000002</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="10">
         <v>2024</v>
       </c>
-      <c r="Z16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>3.0373716149260002</v>
+      <c r="Z16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>2.9225135880419999</v>
       </c>
     </row>
     <row r="17" spans="2:37">
@@ -1881,14 +1881,14 @@
       <c r="W17" s="13">
         <v>0.88292219999999999</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="14">
         <v>2024</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>2.9274006662250001</v>
+      <c r="Z17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>3.0373716149260002</v>
       </c>
     </row>
     <row r="18" spans="2:37">
@@ -1958,14 +1958,14 @@
       <c r="W18" s="8">
         <v>1.94817225</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="10">
         <v>2024</v>
       </c>
-      <c r="Z18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>2.7750241231800001</v>
+      <c r="Z18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>2.9274006662250001</v>
       </c>
     </row>
     <row r="19" spans="2:37">
@@ -2035,14 +2035,14 @@
       <c r="W19" s="13">
         <v>1.6904290099999999</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="14">
         <v>2024</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA19" s="20">
-        <v>2.6217754309229999</v>
+      <c r="Z19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>2.7750241231800001</v>
       </c>
     </row>
     <row r="20" spans="2:37">
@@ -2112,14 +2112,14 @@
       <c r="W20" s="8">
         <v>2.7359321699999999</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="10">
         <v>2024</v>
       </c>
-      <c r="Z20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>2.6107368394420001</v>
+      <c r="Z20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA20" s="20">
+        <v>2.6217754309229999</v>
       </c>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1">
@@ -2189,14 +2189,14 @@
       <c r="W21" s="13">
         <v>1.1713718200000001</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="14">
         <v>2024</v>
       </c>
-      <c r="Z21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21" s="20">
-        <v>2.2820670804450001</v>
+      <c r="Z21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>2.6107368394420001</v>
       </c>
     </row>
     <row r="22" spans="2:37">
@@ -2266,14 +2266,14 @@
       <c r="W22" s="8">
         <v>1.05040859</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="10">
         <v>2024</v>
       </c>
-      <c r="Z22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA22" s="21">
-        <v>2.4540025994449999</v>
+      <c r="Z22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>2.2820670804450001</v>
       </c>
     </row>
     <row r="23" spans="2:37">
@@ -2343,14 +2343,14 @@
       <c r="W23" s="13">
         <v>2.43343599</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Y23" s="14">
         <v>2024</v>
       </c>
-      <c r="Z23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA23" s="22">
-        <v>2.8530240195499998</v>
+      <c r="Z23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>2.4540025994449999</v>
       </c>
     </row>
     <row r="24" spans="2:37">
@@ -2420,6 +2420,15 @@
       <c r="W24" s="8">
         <v>2.7544863500000001</v>
       </c>
+      <c r="Y24" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Z24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>2.8530240195499998</v>
+      </c>
       <c r="AI24" s="31" t="s">
         <v>32</v>
       </c>
@@ -3401,9 +3410,11 @@
     </row>
     <row r="42" spans="2:27">
       <c r="S42" s="19"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="2:27">
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
     </row>
     <row r="44" spans="2:27">
       <c r="V44" s="9"/>

--- a/Tasa_Desempleo.xlsx
+++ b/Tasa_Desempleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010599C0-A95D-4C02-94FC-50423B61676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A3105-0DB4-4B95-9962-688CB51B715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Tasa de desempleo nacional</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -1034,14 +1034,14 @@
       <c r="W6" s="8">
         <v>2.1431278100000002</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="14">
         <v>2025</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>2.7728254442679998</v>
+      <c r="Z6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>2.7750241231800001</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -1111,14 +1111,14 @@
       <c r="W7" s="13">
         <v>2.1642329299999998</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="10">
         <v>2025</v>
       </c>
-      <c r="Z7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>2.6871243735469998</v>
+      <c r="Z7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>2.6217754309229999</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -1188,14 +1188,14 @@
       <c r="W8" s="8">
         <v>2.8283050699999999</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="14">
         <v>2025</v>
       </c>
-      <c r="Z8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>2.746313876486</v>
+      <c r="Z8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>2.6107368394420001</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -1265,14 +1265,14 @@
       <c r="W9" s="13">
         <v>2.0664331499999999</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="10">
         <v>2025</v>
       </c>
-      <c r="Z9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>2.5391063668279998</v>
+      <c r="Z9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>2.2820670804450001</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="15" customHeight="1">
@@ -1342,14 +1342,14 @@
       <c r="W10" s="8">
         <v>2.4743386699999999</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="14">
         <v>2025</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>2.2221963213599998</v>
+      <c r="Z10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>2.4540025994449999</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -1419,14 +1419,14 @@
       <c r="W11" s="13">
         <v>2.04531237</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="10">
         <v>2025</v>
       </c>
-      <c r="Z11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>2.5114197458550001</v>
+      <c r="Z11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>2.8530240195499998</v>
       </c>
     </row>
     <row r="12" spans="2:27">
@@ -1496,14 +1496,14 @@
       <c r="W12" s="8">
         <v>3.4304481099999999</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="14">
         <v>2025</v>
       </c>
-      <c r="Z12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>2.7</v>
+      <c r="Z12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>2.613759785893</v>
       </c>
     </row>
     <row r="13" spans="2:27">
@@ -1573,14 +1573,14 @@
       <c r="W13" s="13">
         <v>3.54693521</v>
       </c>
-      <c r="Y13" s="14">
-        <v>2024</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA13" s="21">
-        <v>2.4323414961659999</v>
+      <c r="Y13" s="16">
+        <v>2025</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>2.7127082932</v>
       </c>
     </row>
     <row r="14" spans="2:27">
@@ -1650,14 +1650,14 @@
       <c r="W14" s="8">
         <v>2.4336425500000001</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="14">
         <v>2024</v>
       </c>
-      <c r="Z14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>2.6388327820440001</v>
+      <c r="Z14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>2.7459961463110001</v>
       </c>
     </row>
     <row r="15" spans="2:27">
@@ -1727,14 +1727,14 @@
       <c r="W15" s="13">
         <v>3.4472335200000002</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="10">
         <v>2024</v>
       </c>
-      <c r="Z15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA15" s="21">
-        <v>2.500181580654</v>
+      <c r="Z15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="20">
+        <v>2.8774210909739999</v>
       </c>
     </row>
     <row r="16" spans="2:27">
@@ -1804,14 +1804,14 @@
       <c r="W16" s="8">
         <v>2.5425498000000002</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="14">
         <v>2024</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="20">
-        <v>2.9225135880419999</v>
+      <c r="Z16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>2.9553459857400002</v>
       </c>
     </row>
     <row r="17" spans="2:37">
@@ -1881,14 +1881,14 @@
       <c r="W17" s="13">
         <v>0.88292219999999999</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="10">
         <v>2024</v>
       </c>
-      <c r="Z17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA17" s="21">
-        <v>3.0373716149260002</v>
+      <c r="Z17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA17" s="20">
+        <v>3.129869799333</v>
       </c>
     </row>
     <row r="18" spans="2:37">
@@ -1958,14 +1958,14 @@
       <c r="W18" s="8">
         <v>1.94817225</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="14">
         <v>2024</v>
       </c>
-      <c r="Z18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA18" s="20">
-        <v>2.9274006662250001</v>
+      <c r="Z18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>2.6520329203049999</v>
       </c>
     </row>
     <row r="19" spans="2:37">
@@ -2035,14 +2035,14 @@
       <c r="W19" s="13">
         <v>1.6904290099999999</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="10">
         <v>2024</v>
       </c>
-      <c r="Z19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>2.7750241231800001</v>
+      <c r="Z19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>2.9311254369539999</v>
       </c>
     </row>
     <row r="20" spans="2:37">
@@ -2112,14 +2112,14 @@
       <c r="W20" s="8">
         <v>2.7359321699999999</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="14">
         <v>2024</v>
       </c>
-      <c r="Z20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA20" s="20">
-        <v>2.6217754309229999</v>
+      <c r="Z20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>2.8227986778080001</v>
       </c>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1">
@@ -2189,14 +2189,14 @@
       <c r="W21" s="13">
         <v>1.1713718200000001</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y21" s="10">
         <v>2024</v>
       </c>
-      <c r="Z21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>2.6107368394420001</v>
+      <c r="Z21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA21" s="20">
+        <v>2.3925406807730001</v>
       </c>
     </row>
     <row r="22" spans="2:37">
@@ -2266,14 +2266,14 @@
       <c r="W22" s="8">
         <v>1.05040859</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="14">
         <v>2024</v>
       </c>
-      <c r="Z22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA22" s="20">
-        <v>2.2820670804450001</v>
+      <c r="Z22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>2.7204319360599998</v>
       </c>
     </row>
     <row r="23" spans="2:37">
@@ -2343,14 +2343,14 @@
       <c r="W23" s="13">
         <v>2.43343599</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y23" s="10">
         <v>2024</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>2.4540025994449999</v>
+      <c r="Z23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA23" s="20">
+        <v>2.9996612926139998</v>
       </c>
     </row>
     <row r="24" spans="2:37">
@@ -2420,14 +2420,14 @@
       <c r="W24" s="8">
         <v>2.7544863500000001</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="Y24" s="14">
         <v>2024</v>
       </c>
-      <c r="Z24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA24" s="22">
-        <v>2.8530240195499998</v>
+      <c r="Z24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>2.4540025994449999</v>
       </c>
       <c r="AI24" s="31" t="s">
         <v>32</v>
@@ -2502,6 +2502,15 @@
       <c r="W25" s="13">
         <v>1.63216312</v>
       </c>
+      <c r="Y25" s="16">
+        <v>2024</v>
+      </c>
+      <c r="Z25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>2.8530240195499998</v>
+      </c>
       <c r="AI25" s="31" t="s">
         <v>33</v>
       </c>
@@ -3411,13 +3420,11 @@
     <row r="42" spans="2:27">
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="2:27">
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-    </row>
     <row r="44" spans="2:27">
       <c r="V44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
